--- a/TP N3/Excels/AG_200Ciclos_Torneo_Elitismo.xlsx
+++ b/TP N3/Excels/AG_200Ciclos_Torneo_Elitismo.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.034739703957305e-05</v>
+        <v>4.515e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>3.237398426624365e-05</v>
+        <v>3.198e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.796e-05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19861.00</t>
+          <t>22145.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;15-&gt;8-&gt;18-&gt;21-&gt;4-&gt;19-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;10-&gt;14-&gt;3-&gt;16-&gt;5-&gt;0-&gt;20-&gt;7-&gt;23-&gt;22</t>
+          <t>Neuquén-&gt;Río Gallegos-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Mendoza-&gt;Santiago del Estero-&gt;La Rioja-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Córdoba-&gt;Posadas-&gt;San Juan-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Paraná-&gt;Santa Fe-&gt;La Plata-&gt;Salta-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -494,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.17651930841702e-05</v>
+        <v>4.965e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>3.922183871979918e-05</v>
+        <v>3.29e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.364e-05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19317.00</t>
+          <t>20138.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;20-&gt;19-&gt;18-&gt;14-&gt;5-&gt;15-&gt;21-&gt;17-&gt;6-&gt;13-&gt;0-&gt;3-&gt;9-&gt;4-&gt;10-&gt;23-&gt;1-&gt;8-&gt;11-&gt;16-&gt;7-&gt;22</t>
+          <t>Neuquén-&gt;Río Gallegos-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Viedma-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;San Juan-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -518,22 +518,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.178395733001916e-05</v>
+        <v>5.078e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.449784185467005e-05</v>
+        <v>4.371e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.791e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19310.00</t>
+          <t>19690.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;4-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;10-&gt;14-&gt;3-&gt;16-&gt;5-&gt;0-&gt;20-&gt;7-&gt;23-&gt;22</t>
+          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Viedma-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;San Juan-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.178395733001916e-05</v>
+        <v>5.078e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>4.311831666091756e-05</v>
+        <v>4.658e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5.002e-05</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19310.00</t>
+          <t>19690.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;4-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;10-&gt;14-&gt;3-&gt;16-&gt;5-&gt;0-&gt;20-&gt;7-&gt;23-&gt;22</t>
+          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Viedma-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;San Juan-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -566,22 +566,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.295207836907599e-05</v>
+        <v>5.102e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>4.7431579945928e-05</v>
+        <v>4.55e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001</v>
+        <v>5.06e-05</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18884.00</t>
+          <t>19598.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;4-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;10-&gt;14-&gt;5-&gt;16-&gt;3-&gt;0-&gt;20-&gt;7-&gt;23-&gt;22</t>
+          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Rawson-&gt;Viedma-&gt;Córdoba-&gt;Paraná-&gt;San Juan-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -590,22 +590,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.336179295624333e-05</v>
+        <v>5.111e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>3.814901003318964e-05</v>
+        <v>4.747e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001</v>
+        <v>5.075e-05</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18739.00</t>
+          <t>19565.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;4-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;10-&gt;14-&gt;5-&gt;16-&gt;3-&gt;0-&gt;20-&gt;7-&gt;23-&gt;22</t>
+          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Rawson-&gt;Viedma-&gt;Córdoba-&gt;Paraná-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -614,22 +614,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.336179295624333e-05</v>
+        <v>5.111e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>5.295207836907599e-05</v>
+        <v>4.581e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001</v>
+        <v>5.092e-05</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18739.00</t>
+          <t>19565.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;4-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;10-&gt;14-&gt;5-&gt;16-&gt;3-&gt;0-&gt;20-&gt;7-&gt;23-&gt;22</t>
+          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Rawson-&gt;Viedma-&gt;Córdoba-&gt;Paraná-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.581291510855612e-05</v>
+        <v>5.158e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.737540269092287e-05</v>
+        <v>4.289e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001</v>
+        <v>5.054e-05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17916.00</t>
+          <t>19387.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;4-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;23-&gt;14-&gt;5-&gt;16-&gt;3-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -662,22 +662,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.775005775005775e-05</v>
+        <v>5.158e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>4.732831653178096e-05</v>
+        <v>4.558e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001</v>
+        <v>5.089e-05</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>17315.00</t>
+          <t>19387.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;3-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;23-&gt;14-&gt;5-&gt;16-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.775005775005775e-05</v>
+        <v>5.418e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>3.985492806185485e-05</v>
+        <v>4.795e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001</v>
+        <v>5.141e-05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17315.00</t>
+          <t>18456.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;3-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;23-&gt;14-&gt;5-&gt;16-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.775005775005775e-05</v>
+        <v>5.418e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>4.749916876454662e-05</v>
+        <v>4.354e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001</v>
+        <v>5.228e-05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17315.00</t>
+          <t>18456.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;3-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;23-&gt;14-&gt;5-&gt;16-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -734,22 +734,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.775005775005775e-05</v>
+        <v>5.418e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>4.164410944071961e-05</v>
+        <v>4.603e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001</v>
+        <v>5.387e-05</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17315.00</t>
+          <t>18456.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;3-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;23-&gt;14-&gt;5-&gt;16-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -758,22 +758,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.775005775005775e-05</v>
+        <v>5.423e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>5.088281687274207e-05</v>
+        <v>4.861e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0001</v>
+        <v>5.406e-05</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17315.00</t>
+          <t>18440.00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;3-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;23-&gt;14-&gt;5-&gt;16-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;San Luis-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -782,22 +782,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.792064871126557e-05</v>
+        <v>5.423e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>4.689551678859501e-05</v>
+        <v>4.461e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001</v>
+        <v>5.37e-05</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17264.00</t>
+          <t>18440.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;3-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;23-&gt;14-&gt;5-&gt;16-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;San Luis-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -806,22 +806,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.264879087833605e-05</v>
+        <v>5.553e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.019324398935903e-05</v>
+        <v>4.687e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001</v>
+        <v>5.368e-05</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15961.00</t>
+          <t>18008.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;23-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;3-&gt;14-&gt;5-&gt;16-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Santiago del Estero-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -830,22 +830,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.264879087833605e-05</v>
+        <v>6.039e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>5.076399817249606e-05</v>
+        <v>4.714e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0001</v>
+        <v>5.422e-05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15961.00</t>
+          <t>16557.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;23-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;13-&gt;11-&gt;3-&gt;14-&gt;5-&gt;16-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Rawson-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -854,22 +854,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.379585326953749e-05</v>
+        <v>6.201e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>5.23752160477662e-05</v>
+        <v>4.369e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001</v>
+        <v>5.733e-05</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15674.00</t>
+          <t>16125.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;23-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;16-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santiago del Estero-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Rawson-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -878,22 +878,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.948304613674263e-05</v>
+        <v>6.201e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>5.318017443097213e-05</v>
+        <v>4.571e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001</v>
+        <v>6.122e-05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14391.00</t>
+          <t>16125.00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;23-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santiago del Estero-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Rawson-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -902,22 +902,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.948304613674263e-05</v>
+        <v>6.435000000000001e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>5.053312446308555e-05</v>
+        <v>4.698e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001</v>
+        <v>6.135e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14391.00</t>
+          <t>15539.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;23-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Santiago del Estero-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -926,22 +926,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.948304613674263e-05</v>
+        <v>6.435000000000001e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>5.289885738468049e-05</v>
+        <v>5.233e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001</v>
+        <v>6.23e-05</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14391.00</t>
+          <t>15539.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;23-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Santiago del Estero-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -950,22 +950,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.948304613674263e-05</v>
+        <v>6.472e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>4.973145016908693e-05</v>
+        <v>6.242e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0001</v>
+        <v>6.431999999999999e-05</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14391.00</t>
+          <t>15451.00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;23-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -974,22 +974,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.948304613674263e-05</v>
+        <v>6.676e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>5.474352657798215e-05</v>
+        <v>5.509e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001</v>
+        <v>6.414000000000001e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14391.00</t>
+          <t>14978.00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;23-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;Posadas-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -998,22 +998,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.948304613674263e-05</v>
+        <v>6.955e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>5.163688939378292e-05</v>
+        <v>4.62e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001</v>
+        <v>6.512e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14391.00</t>
+          <t>14378.00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;23-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1022,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.948304613674263e-05</v>
+        <v>6.955e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>6.222000995520159e-05</v>
+        <v>5.603e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001</v>
+        <v>6.785e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>14391.00</t>
+          <t>14378.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;23-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.948304613674263e-05</v>
+        <v>6.955e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>5.601299501484345e-05</v>
+        <v>5.923e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001</v>
+        <v>6.904e-05</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14391.00</t>
+          <t>14378.00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;23-&gt;4-&gt;0-&gt;20-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.139797229758674e-05</v>
+        <v>6.955e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>5.290725358446643e-05</v>
+        <v>5.115e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001</v>
+        <v>6.855e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>14005.00</t>
+          <t>14378.00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;20-&gt;4-&gt;0-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1094,22 +1094,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.139797229758674e-05</v>
+        <v>6.955e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>5.975500448162534e-05</v>
+        <v>5.645e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001</v>
+        <v>6.849e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14005.00</t>
+          <t>14378.00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;20-&gt;4-&gt;0-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1118,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.273785277858598e-05</v>
+        <v>7.04e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>5.412719891745602e-05</v>
+        <v>4.752e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001</v>
+        <v>6.847e-05</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13747.00</t>
+          <t>14204.00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1142,22 +1142,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.273785277858598e-05</v>
+        <v>7.04e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>5.72508158241255e-05</v>
+        <v>4.898e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001</v>
+        <v>6.908e-05</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13747.00</t>
+          <t>14204.00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.273785277858598e-05</v>
+        <v>7.04e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>5.495411331538166e-05</v>
+        <v>5.161e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001</v>
+        <v>6.943e-05</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13747.00</t>
+          <t>14204.00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1190,22 +1190,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.273785277858598e-05</v>
+        <v>7.04e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>5.555864214678593e-05</v>
+        <v>6.472e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001</v>
+        <v>7.023e-05</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13747.00</t>
+          <t>14204.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1214,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.273785277858598e-05</v>
+        <v>7.04e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>5.726720879624327e-05</v>
+        <v>5.432e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001</v>
+        <v>6.881e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13747.00</t>
+          <t>14204.00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1238,22 +1238,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.273785277858598e-05</v>
+        <v>7.04e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>6.249218847644044e-05</v>
+        <v>5.889e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001</v>
+        <v>6.961000000000001e-05</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13747.00</t>
+          <t>14204.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1262,22 +1262,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.273785277858598e-05</v>
+        <v>7.093e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>5.600985773496135e-05</v>
+        <v>4.354e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0001</v>
+        <v>6.943e-05</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13747.00</t>
+          <t>14097.00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.273785277858598e-05</v>
+        <v>7.093e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>4.951965930474398e-05</v>
+        <v>4.347e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0001</v>
+        <v>6.883e-05</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13747.00</t>
+          <t>14097.00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1310,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.273785277858598e-05</v>
+        <v>7.283000000000001e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>4.567878677142335e-05</v>
+        <v>5.034e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0001</v>
+        <v>7.003000000000001e-05</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13747.00</t>
+          <t>13729.00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;1-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;13-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1334,22 +1334,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.346998751010212e-05</v>
+        <v>7.506e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>5.011024253357386e-05</v>
+        <v>5.104e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0001</v>
+        <v>7.125e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13610.00</t>
+          <t>13321.00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;13-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1358,22 +1358,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.346998751010212e-05</v>
+        <v>7.720000000000001e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>6.310740880979428e-05</v>
+        <v>5.659e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0001</v>
+        <v>7.270000000000001e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13610.00</t>
+          <t>12953.00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;13-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1382,22 +1382,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.346998751010212e-05</v>
+        <v>7.720000000000001e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>5.686988171064604e-05</v>
+        <v>6.557e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0001</v>
+        <v>7.671e-05</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13610.00</t>
+          <t>12953.00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;13-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.346998751010212e-05</v>
+        <v>7.720000000000001e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>5.05663430420712e-05</v>
+        <v>6.994e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0001</v>
+        <v>7.705e-05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13610.00</t>
+          <t>12953.00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;13-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1430,22 +1430,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.346998751010212e-05</v>
+        <v>7.720000000000001e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>4.622353702505316e-05</v>
+        <v>5.405e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0001</v>
+        <v>7.603e-05</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13610.00</t>
+          <t>12953.00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;16-&gt;15-&gt;21-&gt;13-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1454,22 +1454,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.381163271331562e-05</v>
+        <v>7.720000000000001e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>5.37605505080372e-05</v>
+        <v>4.869e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0001</v>
+        <v>7.598e-05</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13547.00</t>
+          <t>12953.00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;13-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1478,22 +1478,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.381163271331562e-05</v>
+        <v>7.896e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>7.346998751010212e-05</v>
+        <v>5.469e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0001</v>
+        <v>7.592e-05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13547.00</t>
+          <t>12664.00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;13-&gt;6-&gt;17-&gt;5-&gt;11-&gt;3-&gt;14-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1502,22 +1502,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.559721802237678e-05</v>
+        <v>7.896e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>5.52761041401802e-05</v>
+        <v>6.376e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0001</v>
+        <v>7.697e-05</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13227.00</t>
+          <t>12664.00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;13-&gt;6-&gt;17-&gt;5-&gt;14-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.559721802237678e-05</v>
+        <v>7.973e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>5.132152938157557e-05</v>
+        <v>7.142e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001</v>
+        <v>7.862e-05</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13227.00</t>
+          <t>12542.00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;13-&gt;6-&gt;17-&gt;5-&gt;14-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1550,22 +1550,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.559721802237678e-05</v>
+        <v>7.973e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>6.007449237053947e-05</v>
+        <v>5.087e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001</v>
+        <v>7.809000000000001e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13227.00</t>
+          <t>12542.00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;13-&gt;6-&gt;17-&gt;5-&gt;14-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1574,22 +1574,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.559721802237678e-05</v>
+        <v>7.973e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>6.074227054607301e-05</v>
+        <v>6.901000000000001e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0001</v>
+        <v>7.906000000000001e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13227.00</t>
+          <t>12542.00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;13-&gt;6-&gt;17-&gt;5-&gt;14-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1598,22 +1598,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.567158531971244e-05</v>
+        <v>7.973e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>5.218661935079846e-05</v>
+        <v>4.775e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0001</v>
+        <v>7.766999999999999e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13214.00</t>
+          <t>12542.00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;14-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1622,22 +1622,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.567158531971244e-05</v>
+        <v>7.973e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>5.620187714269657e-05</v>
+        <v>5.859e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0001</v>
+        <v>7.826999999999999e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13214.00</t>
+          <t>12542.00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;14-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1646,22 +1646,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.567158531971244e-05</v>
+        <v>7.983999999999999e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>6.58544616397761e-05</v>
+        <v>5.588e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0001</v>
+        <v>7.800999999999999e-05</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13214.00</t>
+          <t>12524.00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;14-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Posadas-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1670,22 +1670,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.567158531971244e-05</v>
+        <v>7.983999999999999e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>4.497211728728189e-05</v>
+        <v>6.414000000000001e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0001</v>
+        <v>7.917e-05</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13214.00</t>
+          <t>12524.00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;14-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Posadas-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1694,22 +1694,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.567158531971244e-05</v>
+        <v>7.983999999999999e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>4.497211728728189e-05</v>
+        <v>5.091e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0001</v>
+        <v>7.881999999999999e-05</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13214.00</t>
+          <t>12524.00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>12-&gt;2-&gt;9-&gt;19-&gt;8-&gt;18-&gt;21-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;14-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Posadas-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1718,22 +1718,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.593591009188245e-05</v>
+        <v>7.983999999999999e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>5.821399464431249e-05</v>
+        <v>5.222e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0001</v>
+        <v>7.749000000000001e-05</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13168.00</t>
+          <t>12524.00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;9-&gt;19-&gt;8-&gt;2-&gt;21-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;14-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Posadas-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1742,22 +1742,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.66342248448157e-05</v>
+        <v>8.007e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>5.41858574911948e-05</v>
+        <v>6.31e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0001</v>
+        <v>7.908e-05</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13048.00</t>
+          <t>12488.00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;9-&gt;19-&gt;8-&gt;2-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1766,22 +1766,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.66342248448157e-05</v>
+        <v>8.007e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>5.166356685265551e-05</v>
+        <v>4.841e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0001</v>
+        <v>7.794e-05</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13048.00</t>
+          <t>12488.00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;9-&gt;19-&gt;8-&gt;2-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;1-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1790,22 +1790,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8.149295085975064e-05</v>
+        <v>8.41e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>4.531037607612143e-05</v>
+        <v>6.588999999999999e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0001</v>
+        <v>7.902999999999999e-05</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>12270.00</t>
+          <t>11890.00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;9-&gt;19-&gt;8-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;San Miguel de Tucumán-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1814,22 +1814,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8.149295085975064e-05</v>
+        <v>8.41e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>6.430868167202572e-05</v>
+        <v>5.933e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0001</v>
+        <v>8.058e-05</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>12270.00</t>
+          <t>11890.00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;9-&gt;19-&gt;8-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;San Miguel de Tucumán-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1838,22 +1838,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8.149295085975064e-05</v>
+        <v>8.41e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>7.201497911565606e-05</v>
+        <v>4.712e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0001</v>
+        <v>8.193e-05</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>12270.00</t>
+          <t>11890.00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;9-&gt;19-&gt;8-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;San Miguel de Tucumán-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1862,22 +1862,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.149295085975064e-05</v>
+        <v>8.41e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>4.648136097424932e-05</v>
+        <v>4.916e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0001</v>
+        <v>8.123000000000001e-05</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>12270.00</t>
+          <t>11890.00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;9-&gt;19-&gt;8-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;San Miguel de Tucumán-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.149295085975064e-05</v>
+        <v>8.507e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>7.574609907589759e-05</v>
+        <v>6.577e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0001</v>
+        <v>8.32e-05</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>12270.00</t>
+          <t>11754.00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;9-&gt;19-&gt;8-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1910,22 +1910,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.185985592665357e-05</v>
+        <v>8.507e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>6.887526689165921e-05</v>
+        <v>4.876e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0001</v>
+        <v>8.247e-05</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>12215.00</t>
+          <t>11754.00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;9-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;0-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1934,22 +1934,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.507e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>5.122688386865427e-05</v>
+        <v>6.764e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0001</v>
+        <v>8.330000000000001e-05</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11754.00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1958,22 +1958,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.583e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>6.104260774020266e-05</v>
+        <v>5.912e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0001</v>
+        <v>8.426e-05</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11650.00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.583e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>6.805498843065197e-05</v>
+        <v>7.020999999999999e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0001</v>
+        <v>8.453000000000001e-05</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11650.00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2006,22 +2006,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.583e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>5.864758665180928e-05</v>
+        <v>6.808999999999999e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0001</v>
+        <v>8.516e-05</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11650.00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2030,22 +2030,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.583e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>6.430041152263375e-05</v>
+        <v>7.182e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0001</v>
+        <v>8.549e-05</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11650.00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2054,22 +2054,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.583e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>5.785363031530229e-05</v>
+        <v>5.531e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0001</v>
+        <v>8.432000000000001e-05</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11650.00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2078,22 +2078,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.583e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>6.802258349772124e-05</v>
+        <v>5.258e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0001</v>
+        <v>8.462e-05</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11650.00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2102,22 +2102,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.583e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>6.787483879725786e-05</v>
+        <v>6.153e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0001</v>
+        <v>8.501e-05</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11650.00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2126,22 +2126,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.702e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>6.751282743721307e-05</v>
+        <v>4.786e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0001</v>
+        <v>8.368e-05</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11490.00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2150,22 +2150,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>6.940106877645916e-05</v>
+        <v>5.777e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0001</v>
+        <v>8.59e-05</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2174,22 +2174,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>6.802258349772124e-05</v>
+        <v>5.553e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0001</v>
+        <v>8.645e-05</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2198,22 +2198,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>7.123521869212138e-05</v>
+        <v>5.533e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0001</v>
+        <v>8.546e-05</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2222,22 +2222,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>8.350730688935282e-05</v>
+        <v>5.675e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0001</v>
+        <v>8.606999999999999e-05</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11974.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>12-&gt;18-&gt;8-&gt;19-&gt;0-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2246,22 +2246,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8.60141063134354e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>5.797437532610586e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0001</v>
+        <v>8.734e-05</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11625.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;18-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2270,22 +2270,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8.60141063134354e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>6.931447979482915e-05</v>
+        <v>4.961e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0001</v>
+        <v>8.477e-05</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11625.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;18-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2294,22 +2294,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8.60141063134354e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>7.125044531528322e-05</v>
+        <v>6.993e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0001</v>
+        <v>8.610000000000001e-05</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11625.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;18-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2318,22 +2318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8.60141063134354e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>6.738544474393532e-05</v>
+        <v>7.569e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0001</v>
+        <v>8.695999999999999e-05</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11625.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;18-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2342,22 +2342,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8.60141063134354e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>6.598046978094485e-05</v>
+        <v>5.923e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0001</v>
+        <v>8.603e-05</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11625.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;18-&gt;1-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2366,22 +2366,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8.616232982939858e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>5.521201413427562e-05</v>
+        <v>5.042e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0001</v>
+        <v>8.468e-05</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11605.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2390,22 +2390,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>8.616232982939858e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>6.83293474547318e-05</v>
+        <v>6.122999999999999e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0001</v>
+        <v>8.619e-05</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>11605.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2414,22 +2414,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8.616232982939858e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>7.218131947451999e-05</v>
+        <v>6.82e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0001</v>
+        <v>8.598999999999999e-05</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>11605.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;3-&gt;11-&gt;2-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8.707767328456984e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>6.272738677706687e-05</v>
+        <v>6.09e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0001</v>
+        <v>8.580999999999999e-05</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>11483.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2462,22 +2462,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8.707767328456984e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>5.560189046427579e-05</v>
+        <v>5.753e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0001</v>
+        <v>8.643e-05</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>11483.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8.707767328456984e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>6.038647342995169e-05</v>
+        <v>6.719999999999999e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0001</v>
+        <v>8.593e-05</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>11483.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2510,22 +2510,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.707767328456984e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>6.887526689165921e-05</v>
+        <v>6.834999999999999e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0001</v>
+        <v>8.598999999999999e-05</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>11483.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2534,22 +2534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.707767328456984e-05</v>
+        <v>8.734e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>5.792064871126557e-05</v>
+        <v>5.057e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0001</v>
+        <v>8.474000000000001e-05</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>11483.00</t>
+          <t>11448.00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2558,22 +2558,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.707767328456984e-05</v>
+        <v>8.75e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>7.577479730241721e-05</v>
+        <v>6.655e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0001</v>
+        <v>8.653999999999999e-05</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>11483.00</t>
+          <t>11428.00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2582,22 +2582,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8.707767328456984e-05</v>
+        <v>8.75e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>6.843221788818175e-05</v>
+        <v>6.09e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0001</v>
+        <v>8.640999999999999e-05</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>11483.00</t>
+          <t>11428.00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2606,22 +2606,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>8.712319219376198e-05</v>
+        <v>8.75e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>5.893446487505893e-05</v>
+        <v>6.188e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0001</v>
+        <v>8.666e-05</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>11477.00</t>
+          <t>11428.00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>12-&gt;0-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;17-&gt;6-&gt;5-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;4-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2630,22 +2630,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>8.716875871687587e-05</v>
+        <v>8.75e-05</v>
       </c>
       <c r="C92" t="n">
-        <v>7.49063670411985e-05</v>
+        <v>5.918e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0001</v>
+        <v>8.554e-05</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>11471.00</t>
+          <t>11428.00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
         </is>
       </c>
     </row>
@@ -2654,22 +2654,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>8.716875871687587e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>6.639665360865813e-05</v>
+        <v>5.705e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0001</v>
+        <v>8.674999999999999e-05</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>11471.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2678,22 +2678,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>8.716875871687587e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>5.361930294906166e-05</v>
+        <v>5.392e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0001</v>
+        <v>8.575e-05</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>11471.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C95" t="n">
-        <v>6.010337780983292e-05</v>
+        <v>5.706e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0001</v>
+        <v>8.677e-05</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C96" t="n">
-        <v>5.210232897410514e-05</v>
+        <v>6.936999999999999e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0001</v>
+        <v>8.564e-05</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2750,22 +2750,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>5.875095470301392e-05</v>
+        <v>6.936999999999999e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0001</v>
+        <v>8.632e-05</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2774,22 +2774,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>4.846370068818455e-05</v>
+        <v>7.395e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0001</v>
+        <v>8.673e-05</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2798,22 +2798,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>7.017543859649122e-05</v>
+        <v>5.706e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0001</v>
+        <v>8.556e-05</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2822,22 +2822,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>6.268806419257773e-05</v>
+        <v>5.23e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0001</v>
+        <v>8.647e-05</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2846,22 +2846,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>5.232314776056928e-05</v>
+        <v>4.992e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0001</v>
+        <v>8.606999999999999e-05</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2870,22 +2870,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>7.049700387733522e-05</v>
+        <v>6.433e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0001</v>
+        <v>8.658e-05</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2894,22 +2894,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>7.233273056057866e-05</v>
+        <v>5.704e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0001</v>
+        <v>8.525e-05</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2918,22 +2918,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>6.021194605009634e-05</v>
+        <v>5.572e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0001</v>
+        <v>8.453000000000001e-05</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2942,22 +2942,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>5.36797466315959e-05</v>
+        <v>5.738e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0001</v>
+        <v>8.661e-05</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2966,22 +2966,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>4.846370068818455e-05</v>
+        <v>7.147000000000001e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0001</v>
+        <v>8.601e-05</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -2990,22 +2990,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8.778860503906593e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>6.780580417683754e-05</v>
+        <v>4.887e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0001</v>
+        <v>8.621e-05</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>11390.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;23-&gt;7-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8.912655971479501e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>5.199126546740148e-05</v>
+        <v>7.09e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0001</v>
+        <v>8.626e-05</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>11219.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3038,22 +3038,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>8.912655971479501e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>4.846370068818455e-05</v>
+        <v>5.738e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0001</v>
+        <v>8.595e-05</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>11219.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3062,22 +3062,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8.912655971479501e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>5.279552293965472e-05</v>
+        <v>5.321e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0001</v>
+        <v>8.609e-05</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>11219.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8.912655971479501e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>6.471235358830001e-05</v>
+        <v>5.682e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0001</v>
+        <v>8.63e-05</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>11219.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3110,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8.912655971479501e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>6.844158510711108e-05</v>
+        <v>5.321e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0001</v>
+        <v>8.684e-05</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>11219.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3134,22 +3134,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8.912655971479501e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>5.715918833952558e-05</v>
+        <v>5.393e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0001</v>
+        <v>8.643e-05</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>11219.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3158,22 +3158,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8.912655971479501e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>5.21593991237221e-05</v>
+        <v>5.382e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0001</v>
+        <v>8.523e-05</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>11219.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3182,22 +3182,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>8.912655971479501e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>6.685385746757588e-05</v>
+        <v>5.68e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0001</v>
+        <v>8.578e-05</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>11219.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;18-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;13-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3206,22 +3206,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9.023641941887746e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>4.798234249796075e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0001</v>
+        <v>8.648999999999999e-05</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>11081.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>10-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;12-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3230,22 +3230,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>6.880891763572559e-05</v>
+        <v>7.273e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0001</v>
+        <v>8.691000000000001e-05</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>5.555246930726071e-05</v>
+        <v>4.967e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0001</v>
+        <v>8.603e-05</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3278,22 +3278,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>6.794863083508867e-05</v>
+        <v>7.616e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0001</v>
+        <v>8.728e-05</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3302,22 +3302,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>7.251105793633529e-05</v>
+        <v>5.581e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0001</v>
+        <v>8.642e-05</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3326,22 +3326,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>4.834654805646877e-05</v>
+        <v>5.562e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0001</v>
+        <v>8.6e-05</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3350,22 +3350,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>7.49232037161909e-05</v>
+        <v>5.856e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0001</v>
+        <v>8.648999999999999e-05</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3374,22 +3374,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>6.591957811470006e-05</v>
+        <v>7.036e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0001</v>
+        <v>8.685e-05</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3398,22 +3398,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>8.155276463872126e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0001</v>
+        <v>8.627999999999999e-05</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3422,22 +3422,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>6.623393826996953e-05</v>
+        <v>7.057e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0001</v>
+        <v>8.618e-05</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3446,22 +3446,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>6.378364587319811e-05</v>
+        <v>4.967e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0001</v>
+        <v>8.574e-05</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3470,22 +3470,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>6.001320290463902e-05</v>
+        <v>4.99e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0001</v>
+        <v>8.582e-05</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3494,22 +3494,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>5.590965000559097e-05</v>
+        <v>4.967e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0001</v>
+        <v>8.407999999999999e-05</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3518,22 +3518,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9.039139473922083e-05</v>
+        <v>8.753e-05</v>
       </c>
       <c r="C129" t="n">
-        <v>5.710043967338549e-05</v>
+        <v>7.111e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0001</v>
+        <v>8.669e-05</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>11062.00</t>
+          <t>11424.00</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;5-&gt;6-&gt;17-&gt;18-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3542,22 +3542,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C130" t="n">
-        <v>7.473841554559044e-05</v>
+        <v>5.995e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0001</v>
+        <v>8.634e-05</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3566,22 +3566,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C131" t="n">
-        <v>6.161809107153861e-05</v>
+        <v>5.002e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0001</v>
+        <v>8.495e-05</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3590,22 +3590,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C132" t="n">
-        <v>5.624929688378895e-05</v>
+        <v>5.089e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0001</v>
+        <v>8.616e-05</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3614,22 +3614,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C133" t="n">
-        <v>7.213966238638003e-05</v>
+        <v>7.644000000000001e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0001</v>
+        <v>8.739e-05</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3638,22 +3638,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C134" t="n">
-        <v>6.278646323852578e-05</v>
+        <v>6.103e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0001</v>
+        <v>8.716999999999999e-05</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3662,22 +3662,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C135" t="n">
-        <v>6.601531555320834e-05</v>
+        <v>5.588e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0001</v>
+        <v>8.708e-05</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C136" t="n">
-        <v>6.738998584810297e-05</v>
+        <v>4.911e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0001</v>
+        <v>8.508000000000001e-05</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3710,22 +3710,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C137" t="n">
-        <v>8.128759551292472e-05</v>
+        <v>6.103e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0001</v>
+        <v>8.610000000000001e-05</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3734,22 +3734,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C138" t="n">
-        <v>6.436248954109545e-05</v>
+        <v>7.121e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0001</v>
+        <v>8.66e-05</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3758,22 +3758,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>7.177205196296562e-05</v>
+        <v>6.56e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0001</v>
+        <v>8.667e-05</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3782,22 +3782,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9.128251939753537e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>6.83667190811513e-05</v>
+        <v>5.073e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0001</v>
+        <v>8.724e-05</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>10954.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>12-&gt;4-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;20-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9.195402298850575e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>5.712327202102136e-05</v>
+        <v>6.475e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0001</v>
+        <v>8.633e-05</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>10874.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>12-&gt;20-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3830,22 +3830,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9.195402298850575e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>6.278646323852578e-05</v>
+        <v>5.878e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0001</v>
+        <v>8.703e-05</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>10874.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>12-&gt;20-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3854,22 +3854,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9.195402298850575e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>5.350741077639253e-05</v>
+        <v>7.771e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0001</v>
+        <v>8.778e-05</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>10874.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>12-&gt;20-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3878,22 +3878,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9.195402298850575e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C144" t="n">
-        <v>5.364519070865297e-05</v>
+        <v>5.017e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0001</v>
+        <v>8.537e-05</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>10874.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>12-&gt;20-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3902,22 +3902,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9.195402298850575e-05</v>
+        <v>8.830000000000001e-05</v>
       </c>
       <c r="C145" t="n">
-        <v>7.452120128176467e-05</v>
+        <v>5.739e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0001</v>
+        <v>8.657000000000001e-05</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>10874.00</t>
+          <t>11324.00</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>12-&gt;20-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3926,22 +3926,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9.195402298850575e-05</v>
+        <v>8.981e-05</v>
       </c>
       <c r="C146" t="n">
-        <v>5.810237638719424e-05</v>
+        <v>6.451e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0001</v>
+        <v>8.63e-05</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>10874.00</t>
+          <t>11133.00</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>12-&gt;20-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3950,22 +3950,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9.195402298850575e-05</v>
+        <v>8.981e-05</v>
       </c>
       <c r="C147" t="n">
-        <v>4.974629390110437e-05</v>
+        <v>5.538e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0001</v>
+        <v>8.813e-05</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>10874.00</t>
+          <t>11133.00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>12-&gt;20-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3974,22 +3974,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9.195402298850575e-05</v>
+        <v>8.981e-05</v>
       </c>
       <c r="C148" t="n">
-        <v>6.855419208884623e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0001</v>
+        <v>8.735e-05</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>10874.00</t>
+          <t>11133.00</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>12-&gt;20-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;7-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -3998,22 +3998,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>8.981e-05</v>
       </c>
       <c r="C149" t="n">
-        <v>7.09622480840193e-05</v>
+        <v>6.101e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0001</v>
+        <v>8.854e-05</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>11133.00</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4022,22 +4022,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>8.981e-05</v>
       </c>
       <c r="C150" t="n">
-        <v>5.961962678113635e-05</v>
+        <v>5.8e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0001</v>
+        <v>8.845e-05</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>11133.00</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4046,22 +4046,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>8.981e-05</v>
       </c>
       <c r="C151" t="n">
-        <v>7.830853563038371e-05</v>
+        <v>5.461e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0001</v>
+        <v>8.776999999999999e-05</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>11133.00</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4070,22 +4070,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>8.981e-05</v>
       </c>
       <c r="C152" t="n">
-        <v>6.331919204710948e-05</v>
+        <v>5.382e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0001</v>
+        <v>8.762e-05</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>11133.00</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4094,22 +4094,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>8.981e-05</v>
       </c>
       <c r="C153" t="n">
-        <v>5.453454763592736e-05</v>
+        <v>6.002e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0001</v>
+        <v>8.807e-05</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>11133.00</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4118,22 +4118,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>8.981e-05</v>
       </c>
       <c r="C154" t="n">
-        <v>6.991051454138702e-05</v>
+        <v>6.943e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0001</v>
+        <v>8.862e-05</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>11133.00</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4142,22 +4142,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C155" t="n">
-        <v>6.78195998643608e-05</v>
+        <v>5.944e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0001</v>
+        <v>8.801000000000001e-05</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4166,22 +4166,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C156" t="n">
-        <v>7.016066792955869e-05</v>
+        <v>6.431999999999999e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0001</v>
+        <v>8.784999999999999e-05</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4190,22 +4190,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C157" t="n">
-        <v>6.595870984763538e-05</v>
+        <v>6.592000000000001e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0001</v>
+        <v>8.925e-05</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4214,22 +4214,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C158" t="n">
-        <v>5.453454763592736e-05</v>
+        <v>5.51e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0001</v>
+        <v>8.869000000000001e-05</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4238,22 +4238,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>5.695409499943046e-05</v>
+        <v>7.196e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0001</v>
+        <v>9.002e-05</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4262,22 +4262,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>6.120700208103807e-05</v>
+        <v>7.253e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0001</v>
+        <v>8.994e-05</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C161" t="n">
-        <v>5.427702996092054e-05</v>
+        <v>5.583e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0001</v>
+        <v>8.94e-05</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4310,22 +4310,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C162" t="n">
-        <v>9.078529278256922e-05</v>
+        <v>6.491e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0001</v>
+        <v>8.897e-05</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4334,22 +4334,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C163" t="n">
-        <v>8.716875871687587e-05</v>
+        <v>6.086e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>0.0001</v>
+        <v>8.892e-05</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4358,22 +4358,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C164" t="n">
-        <v>7.442137381856069e-05</v>
+        <v>7.253e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>0.0001</v>
+        <v>8.869000000000001e-05</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4382,22 +4382,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C165" t="n">
-        <v>7.576905591756326e-05</v>
+        <v>7.253e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>0.0001</v>
+        <v>8.957e-05</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4406,22 +4406,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C166" t="n">
-        <v>5.77634011090573e-05</v>
+        <v>6.813e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0001</v>
+        <v>8.914e-05</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4430,22 +4430,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C167" t="n">
-        <v>6.909894969596462e-05</v>
+        <v>5.222e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0001</v>
+        <v>8.937000000000001e-05</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4454,22 +4454,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C168" t="n">
-        <v>5.6072670180554e-05</v>
+        <v>4.851e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0001</v>
+        <v>8.845e-05</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4478,22 +4478,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C169" t="n">
-        <v>5.427702996092054e-05</v>
+        <v>5.503e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0001</v>
+        <v>8.897e-05</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4502,22 +4502,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>5.814e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0001</v>
+        <v>8.993e-05</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4526,22 +4526,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>5.160757599215565e-05</v>
+        <v>7.487000000000001e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0001</v>
+        <v>9.004e-05</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4550,22 +4550,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>5.185108368764907e-05</v>
+        <v>5.814e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0001</v>
+        <v>8.957e-05</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4574,22 +4574,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>6.868603612885501e-05</v>
+        <v>6.805e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0001</v>
+        <v>9.022e-05</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4598,22 +4598,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C174" t="n">
-        <v>6.148927012236365e-05</v>
+        <v>7.93e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0001</v>
+        <v>9.074e-05</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4622,22 +4622,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C175" t="n">
-        <v>6.595870984763538e-05</v>
+        <v>7.562e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>0.0001</v>
+        <v>9.041e-05</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4646,22 +4646,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C176" t="n">
-        <v>5.787706910522051e-05</v>
+        <v>5.064e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0001</v>
+        <v>8.958000000000001e-05</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4670,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C177" t="n">
-        <v>5.638249887235002e-05</v>
+        <v>6.046e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0001</v>
+        <v>8.893e-05</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4694,22 +4694,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C178" t="n">
-        <v>6.670224119530417e-05</v>
+        <v>5.848e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0001</v>
+        <v>8.937000000000001e-05</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4718,22 +4718,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C179" t="n">
-        <v>6.595870984763538e-05</v>
+        <v>5.076e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0001</v>
+        <v>8.915999999999999e-05</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4742,22 +4742,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C180" t="n">
-        <v>6.868603612885501e-05</v>
+        <v>7.126000000000001e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0001</v>
+        <v>8.817e-05</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4766,22 +4766,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C181" t="n">
-        <v>7.609770945894529e-05</v>
+        <v>6.849e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0001</v>
+        <v>8.907e-05</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4790,22 +4790,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C182" t="n">
-        <v>7.877116975187081e-05</v>
+        <v>6.617e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0001</v>
+        <v>8.991e-05</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4814,22 +4814,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C183" t="n">
-        <v>7.576905591756326e-05</v>
+        <v>5.883e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0001</v>
+        <v>8.936e-05</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4838,22 +4838,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C184" t="n">
-        <v>6.282985674792661e-05</v>
+        <v>5.642e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0001</v>
+        <v>8.886999999999999e-05</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4862,22 +4862,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C185" t="n">
-        <v>5.415944540727903e-05</v>
+        <v>4.945e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0001</v>
+        <v>8.815e-05</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>9.452689290103034e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C186" t="n">
-        <v>7.453786523553965e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>0.0001</v>
+        <v>8.962999999999999e-05</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>10578.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;14-&gt;15-&gt;16-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4910,22 +4910,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9.454476694714947e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C187" t="n">
-        <v>5.571651437486071e-05</v>
+        <v>5.604e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0001</v>
+        <v>8.974e-05</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>10576.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4934,22 +4934,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>9.454476694714947e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C188" t="n">
-        <v>5.714938850154303e-05</v>
+        <v>7.977e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0001</v>
+        <v>9.035e-05</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>10576.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4958,22 +4958,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>9.454476694714947e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C189" t="n">
-        <v>7.298737318443909e-05</v>
+        <v>7.588999999999999e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0001</v>
+        <v>9.001e-05</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>10576.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;13-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;21-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -4982,22 +4982,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C190" t="n">
-        <v>5.045408678102926e-05</v>
+        <v>4.945e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0001</v>
+        <v>8.803e-05</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5006,22 +5006,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C191" t="n">
-        <v>5.964451866873435e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0001</v>
+        <v>9.098e-05</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C192" t="n">
-        <v>6.25e-05</v>
+        <v>6.592000000000001e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0001</v>
+        <v>8.949e-05</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5054,22 +5054,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C193" t="n">
-        <v>5.961962678113635e-05</v>
+        <v>4.94e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0001</v>
+        <v>8.724e-05</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5078,22 +5078,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C194" t="n">
-        <v>5.055611729019211e-05</v>
+        <v>7.64e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0001</v>
+        <v>9.037e-05</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5102,22 +5102,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C195" t="n">
-        <v>6.404918977774931e-05</v>
+        <v>6.707000000000001e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0001</v>
+        <v>8.937000000000001e-05</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5126,22 +5126,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C196" t="n">
-        <v>5.482456140350877e-05</v>
+        <v>5.909e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0001</v>
+        <v>8.915e-05</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5150,22 +5150,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C197" t="n">
-        <v>7.591861524445795e-05</v>
+        <v>4.963e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0001</v>
+        <v>8.859e-05</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5174,22 +5174,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C198" t="n">
-        <v>7.456565505927969e-05</v>
+        <v>6.813e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0001</v>
+        <v>8.975e-05</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5198,22 +5198,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C199" t="n">
-        <v>5.796429399489914e-05</v>
+        <v>5.995e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>0.0001</v>
+        <v>8.892e-05</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5222,22 +5222,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C200" t="n">
-        <v>5.012782595618828e-05</v>
+        <v>7.824e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0001</v>
+        <v>9.07e-05</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5246,22 +5246,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C201" t="n">
-        <v>4.95687518588282e-05</v>
+        <v>7.538e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0001</v>
+        <v>9.043e-05</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -5270,22 +5270,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>9.47597839476926e-05</v>
+        <v>9.098e-05</v>
       </c>
       <c r="C202" t="n">
-        <v>7.425558773297691e-05</v>
+        <v>5.482e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0001</v>
+        <v>8.931e-05</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>10552.00</t>
+          <t>10991.00</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>12-&gt;7-&gt;8-&gt;19-&gt;1-&gt;21-&gt;16-&gt;15-&gt;14-&gt;18-&gt;6-&gt;17-&gt;5-&gt;13-&gt;2-&gt;11-&gt;3-&gt;9-&gt;0-&gt;4-&gt;20-&gt;23-&gt;10-&gt;22</t>
+          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
         </is>
       </c>
     </row>

--- a/TP N3/Excels/AG_200Ciclos_Torneo_Elitismo.xlsx
+++ b/TP N3/Excels/AG_200Ciclos_Torneo_Elitismo.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.515e-05</v>
+        <v>0.02493687</v>
       </c>
       <c r="C2" t="n">
-        <v>3.198e-05</v>
+        <v>0.01729129</v>
       </c>
       <c r="D2" t="n">
-        <v>3.796e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22145.00</t>
+          <t>39.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Río Gallegos-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Mendoza-&gt;Santiago del Estero-&gt;La Rioja-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Córdoba-&gt;Posadas-&gt;San Juan-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Paraná-&gt;Santa Fe-&gt;La Plata-&gt;Salta-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Formosa-&gt;CABA-&gt;San Miguel de Tucumán-&gt;La Plata-&gt;Córdoba-&gt;Neuquén-&gt;San Salvador de Jujuy-&gt;Rawson-&gt;Santa Rosa-&gt;Ushuaia-&gt;Río Gallegos-&gt;San Fernando del Valle de Catamarca-&gt;Salta-&gt;Corrientes-&gt;Paraná-&gt;Santa Fe-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Luis-&gt;Viedma-&gt;Posadas-&gt;Santiago del Estero</t>
         </is>
       </c>
     </row>
@@ -494,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.965e-05</v>
+        <v>0.02277599</v>
       </c>
       <c r="C3" t="n">
-        <v>3.29e-05</v>
+        <v>0.01559033</v>
       </c>
       <c r="D3" t="n">
-        <v>4.364e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20138.00</t>
+          <t>42.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Río Gallegos-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Viedma-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;San Juan-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Santa Rosa-&gt;Salta-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;San Luis-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;Paraná-&gt;San Salvador de Jujuy-&gt;La Plata-&gt;Neuquén</t>
         </is>
       </c>
     </row>
@@ -518,22 +518,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.078e-05</v>
+        <v>0.02108637</v>
       </c>
       <c r="C4" t="n">
-        <v>4.371e-05</v>
+        <v>0.01661129</v>
       </c>
       <c r="D4" t="n">
-        <v>4.791e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19690.00</t>
+          <t>46.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Viedma-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;San Juan-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;CABA-&gt;Mendoza-&gt;Rawson-&gt;San Juan-&gt;Neuquén-&gt;Salta-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;La Plata-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.078e-05</v>
+        <v>0.02181189</v>
       </c>
       <c r="C5" t="n">
-        <v>4.658e-05</v>
+        <v>0.01756921</v>
       </c>
       <c r="D5" t="n">
-        <v>5.002e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19690.00</t>
+          <t>44.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Viedma-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;San Juan-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;San Luis-&gt;Neuquén-&gt;Salta-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;CABA-&gt;San Salvador de Jujuy-&gt;La Plata-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -566,22 +566,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.102e-05</v>
+        <v>0.02111263</v>
       </c>
       <c r="C6" t="n">
-        <v>4.55e-05</v>
+        <v>0.01726601</v>
       </c>
       <c r="D6" t="n">
-        <v>5.06e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19598.00</t>
+          <t>46.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Rawson-&gt;Viedma-&gt;Córdoba-&gt;Paraná-&gt;San Juan-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -590,22 +590,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.111e-05</v>
+        <v>0.02060843</v>
       </c>
       <c r="C7" t="n">
-        <v>4.747e-05</v>
+        <v>0.01443625</v>
       </c>
       <c r="D7" t="n">
-        <v>5.075e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19565.00</t>
+          <t>47.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Rawson-&gt;Viedma-&gt;Córdoba-&gt;Paraná-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -614,22 +614,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.111e-05</v>
+        <v>0.02016494</v>
       </c>
       <c r="C8" t="n">
-        <v>4.581e-05</v>
+        <v>0.01546291</v>
       </c>
       <c r="D8" t="n">
-        <v>5.092e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>19565.00</t>
+          <t>48.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Rawson-&gt;Viedma-&gt;Córdoba-&gt;Paraná-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.158e-05</v>
+        <v>0.02013644</v>
       </c>
       <c r="C9" t="n">
-        <v>4.289e-05</v>
+        <v>0.01641146</v>
       </c>
       <c r="D9" t="n">
-        <v>5.054e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19387.00</t>
+          <t>48.66</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -662,22 +662,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.158e-05</v>
+        <v>0.02011209</v>
       </c>
       <c r="C10" t="n">
-        <v>4.558e-05</v>
+        <v>0.01632488</v>
       </c>
       <c r="D10" t="n">
-        <v>5.089e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19387.00</t>
+          <t>48.72</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Río Gallegos-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Mendoza-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.418e-05</v>
+        <v>0.02013569</v>
       </c>
       <c r="C11" t="n">
-        <v>4.795e-05</v>
+        <v>0.01413839</v>
       </c>
       <c r="D11" t="n">
-        <v>5.141e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18456.00</t>
+          <t>48.66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.418e-05</v>
+        <v>0.02010346</v>
       </c>
       <c r="C12" t="n">
-        <v>4.354e-05</v>
+        <v>0.01782161</v>
       </c>
       <c r="D12" t="n">
-        <v>5.228e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18456.00</t>
+          <t>48.74</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -734,22 +734,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.418e-05</v>
+        <v>0.02059767</v>
       </c>
       <c r="C13" t="n">
-        <v>4.603e-05</v>
+        <v>0.01919677</v>
       </c>
       <c r="D13" t="n">
-        <v>5.387e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18456.00</t>
+          <t>47.55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;La Rioja-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -758,22 +758,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.423e-05</v>
+        <v>0.02044438</v>
       </c>
       <c r="C14" t="n">
-        <v>4.861e-05</v>
+        <v>0.01711559</v>
       </c>
       <c r="D14" t="n">
-        <v>5.406e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18440.00</t>
+          <t>47.91</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;San Luis-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -782,22 +782,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.423e-05</v>
+        <v>0.02381226</v>
       </c>
       <c r="C15" t="n">
-        <v>4.461e-05</v>
+        <v>0.01807932</v>
       </c>
       <c r="D15" t="n">
-        <v>5.37e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18440.00</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;San Luis-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -806,22 +806,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.553e-05</v>
+        <v>0.02222811</v>
       </c>
       <c r="C16" t="n">
-        <v>4.687e-05</v>
+        <v>0.01596955</v>
       </c>
       <c r="D16" t="n">
-        <v>5.368e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18008.00</t>
+          <t>43.99</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Santiago del Estero-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Ushuaia-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -830,22 +830,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.039e-05</v>
+        <v>0.02043873</v>
       </c>
       <c r="C17" t="n">
-        <v>4.714e-05</v>
+        <v>0.01305771</v>
       </c>
       <c r="D17" t="n">
-        <v>5.422e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16557.00</t>
+          <t>47.93</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Santiago del Estero-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Rawson-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -854,22 +854,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.201e-05</v>
+        <v>0.02020152</v>
       </c>
       <c r="C18" t="n">
-        <v>4.369e-05</v>
+        <v>0.01551588</v>
       </c>
       <c r="D18" t="n">
-        <v>5.733e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>16125.00</t>
+          <t>48.50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santiago del Estero-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Rawson-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -878,22 +878,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.201e-05</v>
+        <v>0.02016459</v>
       </c>
       <c r="C19" t="n">
-        <v>4.571e-05</v>
+        <v>0.01953885</v>
       </c>
       <c r="D19" t="n">
-        <v>6.122e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>16125.00</t>
+          <t>48.59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santiago del Estero-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Rawson-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -902,22 +902,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.435000000000001e-05</v>
+        <v>0.02061645</v>
       </c>
       <c r="C20" t="n">
-        <v>4.698e-05</v>
+        <v>0.01325742</v>
       </c>
       <c r="D20" t="n">
-        <v>6.135e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15539.00</t>
+          <t>47.50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Santiago del Estero-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -926,22 +926,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.435000000000001e-05</v>
+        <v>0.02062466</v>
       </c>
       <c r="C21" t="n">
-        <v>5.233e-05</v>
+        <v>0.01610122</v>
       </c>
       <c r="D21" t="n">
-        <v>6.23e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15539.00</t>
+          <t>47.49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Santiago del Estero-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -950,22 +950,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.472e-05</v>
+        <v>0.0204046</v>
       </c>
       <c r="C22" t="n">
-        <v>6.242e-05</v>
+        <v>0.01628196</v>
       </c>
       <c r="D22" t="n">
-        <v>6.431999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15451.00</t>
+          <t>48.01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Neuquén-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;Posadas-&gt;Córdoba-&gt;San Luis-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -974,22 +974,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.676e-05</v>
+        <v>0.02006623</v>
       </c>
       <c r="C23" t="n">
-        <v>5.509e-05</v>
+        <v>0.01820777</v>
       </c>
       <c r="D23" t="n">
-        <v>6.414000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14978.00</t>
+          <t>48.83</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;Posadas-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -998,22 +998,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.955e-05</v>
+        <v>0.02038213</v>
       </c>
       <c r="C24" t="n">
-        <v>4.62e-05</v>
+        <v>0.01340564</v>
       </c>
       <c r="D24" t="n">
-        <v>6.512e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14378.00</t>
+          <t>48.06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1022,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.955e-05</v>
+        <v>0.02061334</v>
       </c>
       <c r="C25" t="n">
-        <v>5.603e-05</v>
+        <v>0.01240503</v>
       </c>
       <c r="D25" t="n">
-        <v>6.785e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>14378.00</t>
+          <t>47.51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.955e-05</v>
+        <v>0.02006437</v>
       </c>
       <c r="C26" t="n">
-        <v>5.923e-05</v>
+        <v>0.01796511</v>
       </c>
       <c r="D26" t="n">
-        <v>6.904e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14378.00</t>
+          <t>48.84</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.955e-05</v>
+        <v>0.02014346</v>
       </c>
       <c r="C27" t="n">
-        <v>5.115e-05</v>
+        <v>0.01793532</v>
       </c>
       <c r="D27" t="n">
-        <v>6.855e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>14378.00</t>
+          <t>48.64</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -1094,22 +1094,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.955e-05</v>
+        <v>0.02024371</v>
       </c>
       <c r="C28" t="n">
-        <v>5.645e-05</v>
+        <v>0.01467705</v>
       </c>
       <c r="D28" t="n">
-        <v>6.849e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14378.00</t>
+          <t>48.40</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1118,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.04e-05</v>
+        <v>0.02074815</v>
       </c>
       <c r="C29" t="n">
-        <v>4.752e-05</v>
+        <v>0.01393088</v>
       </c>
       <c r="D29" t="n">
-        <v>6.847e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14204.00</t>
+          <t>47.20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1142,22 +1142,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.04e-05</v>
+        <v>0.02072086</v>
       </c>
       <c r="C30" t="n">
-        <v>4.898e-05</v>
+        <v>0.01383305</v>
       </c>
       <c r="D30" t="n">
-        <v>6.908e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14204.00</t>
+          <t>47.26</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.04e-05</v>
+        <v>0.02004397</v>
       </c>
       <c r="C31" t="n">
-        <v>5.161e-05</v>
+        <v>0.0186201</v>
       </c>
       <c r="D31" t="n">
-        <v>6.943e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14204.00</t>
+          <t>48.89</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1190,22 +1190,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.04e-05</v>
+        <v>0.02022621</v>
       </c>
       <c r="C32" t="n">
-        <v>6.472e-05</v>
+        <v>0.01366157</v>
       </c>
       <c r="D32" t="n">
-        <v>7.023e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14204.00</t>
+          <t>48.44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1214,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.04e-05</v>
+        <v>0.02016215</v>
       </c>
       <c r="C33" t="n">
-        <v>5.432e-05</v>
+        <v>0.01403673</v>
       </c>
       <c r="D33" t="n">
-        <v>6.881e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14204.00</t>
+          <t>48.60</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1238,22 +1238,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.04e-05</v>
+        <v>0.02021593</v>
       </c>
       <c r="C34" t="n">
-        <v>5.889e-05</v>
+        <v>0.01659304</v>
       </c>
       <c r="D34" t="n">
-        <v>6.961000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14204.00</t>
+          <t>48.47</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Salta-&gt;Resistencia-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1262,22 +1262,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.093e-05</v>
+        <v>0.02008916</v>
       </c>
       <c r="C35" t="n">
-        <v>4.354e-05</v>
+        <v>0.01822917</v>
       </c>
       <c r="D35" t="n">
-        <v>6.943e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14097.00</t>
+          <t>48.78</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.093e-05</v>
+        <v>0.02025223</v>
       </c>
       <c r="C36" t="n">
-        <v>4.347e-05</v>
+        <v>0.01361961</v>
       </c>
       <c r="D36" t="n">
-        <v>6.883e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14097.00</t>
+          <t>48.38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1310,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.283000000000001e-05</v>
+        <v>0.02075337</v>
       </c>
       <c r="C37" t="n">
-        <v>5.034e-05</v>
+        <v>0.01459704</v>
       </c>
       <c r="D37" t="n">
-        <v>7.003000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13729.00</t>
+          <t>47.18</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Paraná-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1334,22 +1334,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.506e-05</v>
+        <v>0.02054879</v>
       </c>
       <c r="C38" t="n">
-        <v>5.104e-05</v>
+        <v>0.01529959</v>
       </c>
       <c r="D38" t="n">
-        <v>7.125e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13321.00</t>
+          <t>47.66</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;San Juan-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1358,22 +1358,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.720000000000001e-05</v>
+        <v>0.02045386</v>
       </c>
       <c r="C39" t="n">
-        <v>5.659e-05</v>
+        <v>0.01581691</v>
       </c>
       <c r="D39" t="n">
-        <v>7.270000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12953.00</t>
+          <t>47.89</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
         </is>
       </c>
     </row>
@@ -1382,22 +1382,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.720000000000001e-05</v>
+        <v>0.02033011</v>
       </c>
       <c r="C40" t="n">
-        <v>6.557e-05</v>
+        <v>0.01766599</v>
       </c>
       <c r="D40" t="n">
-        <v>7.671e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12953.00</t>
+          <t>48.19</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.720000000000001e-05</v>
+        <v>0.02057471</v>
       </c>
       <c r="C41" t="n">
-        <v>6.994e-05</v>
+        <v>0.01181581</v>
       </c>
       <c r="D41" t="n">
-        <v>7.705e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12953.00</t>
+          <t>47.60</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1430,22 +1430,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.720000000000001e-05</v>
+        <v>0.02042319</v>
       </c>
       <c r="C42" t="n">
-        <v>5.405e-05</v>
+        <v>0.01236168</v>
       </c>
       <c r="D42" t="n">
-        <v>7.603e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12953.00</t>
+          <t>47.96</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1454,22 +1454,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.720000000000001e-05</v>
+        <v>0.02028943</v>
       </c>
       <c r="C43" t="n">
-        <v>4.869e-05</v>
+        <v>0.01240558</v>
       </c>
       <c r="D43" t="n">
-        <v>7.598e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12953.00</t>
+          <t>48.29</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1478,22 +1478,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.896e-05</v>
+        <v>0.02019824</v>
       </c>
       <c r="C44" t="n">
-        <v>5.469e-05</v>
+        <v>0.01446781</v>
       </c>
       <c r="D44" t="n">
-        <v>7.592e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12664.00</t>
+          <t>48.51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1502,22 +1502,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.896e-05</v>
+        <v>0.02052927</v>
       </c>
       <c r="C45" t="n">
-        <v>6.376e-05</v>
+        <v>0.01254871</v>
       </c>
       <c r="D45" t="n">
-        <v>7.697e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12664.00</t>
+          <t>47.71</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;Salta-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.973e-05</v>
+        <v>0.02089939</v>
       </c>
       <c r="C46" t="n">
-        <v>7.142e-05</v>
+        <v>0.01168174</v>
       </c>
       <c r="D46" t="n">
-        <v>7.862e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12542.00</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1550,22 +1550,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.973e-05</v>
+        <v>0.0203679</v>
       </c>
       <c r="C47" t="n">
-        <v>5.087e-05</v>
+        <v>0.01719821</v>
       </c>
       <c r="D47" t="n">
-        <v>7.809000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12542.00</t>
+          <t>48.10</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1574,22 +1574,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.973e-05</v>
+        <v>0.02012765</v>
       </c>
       <c r="C48" t="n">
-        <v>6.901000000000001e-05</v>
+        <v>0.0178939</v>
       </c>
       <c r="D48" t="n">
-        <v>7.906000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>12542.00</t>
+          <t>48.68</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1598,22 +1598,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.973e-05</v>
+        <v>0.0203688</v>
       </c>
       <c r="C49" t="n">
-        <v>4.775e-05</v>
+        <v>0.01332414</v>
       </c>
       <c r="D49" t="n">
-        <v>7.766999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12542.00</t>
+          <t>48.09</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1622,22 +1622,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.973e-05</v>
+        <v>0.02042809</v>
       </c>
       <c r="C50" t="n">
-        <v>5.859e-05</v>
+        <v>0.01246425</v>
       </c>
       <c r="D50" t="n">
-        <v>7.826999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>12542.00</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Corrientes-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1646,22 +1646,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.983999999999999e-05</v>
+        <v>0.02022691</v>
       </c>
       <c r="C51" t="n">
-        <v>5.588e-05</v>
+        <v>0.01475125</v>
       </c>
       <c r="D51" t="n">
-        <v>7.800999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12524.00</t>
+          <t>48.44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Posadas-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1670,22 +1670,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.983999999999999e-05</v>
+        <v>0.02023165</v>
       </c>
       <c r="C52" t="n">
-        <v>6.414000000000001e-05</v>
+        <v>0.01415459</v>
       </c>
       <c r="D52" t="n">
-        <v>7.917e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>12524.00</t>
+          <t>48.43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Posadas-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1694,22 +1694,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.983999999999999e-05</v>
+        <v>0.02026744</v>
       </c>
       <c r="C53" t="n">
-        <v>5.091e-05</v>
+        <v>0.01478081</v>
       </c>
       <c r="D53" t="n">
-        <v>7.881999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>12524.00</t>
+          <t>48.34</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Posadas-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1718,22 +1718,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.983999999999999e-05</v>
+        <v>0.02039368</v>
       </c>
       <c r="C54" t="n">
-        <v>5.222e-05</v>
+        <v>0.01747077</v>
       </c>
       <c r="D54" t="n">
-        <v>7.749000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>12524.00</t>
+          <t>48.03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Formosa-&gt;Posadas-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1742,22 +1742,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8.007e-05</v>
+        <v>0.02052349</v>
       </c>
       <c r="C55" t="n">
-        <v>6.31e-05</v>
+        <v>0.01220693</v>
       </c>
       <c r="D55" t="n">
-        <v>7.908e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>12488.00</t>
+          <t>47.72</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1766,22 +1766,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8.007e-05</v>
+        <v>0.0202595</v>
       </c>
       <c r="C56" t="n">
-        <v>4.841e-05</v>
+        <v>0.01589119</v>
       </c>
       <c r="D56" t="n">
-        <v>7.794e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>12488.00</t>
+          <t>48.36</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
         </is>
       </c>
     </row>
@@ -1790,22 +1790,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8.41e-05</v>
+        <v>0.02062928</v>
       </c>
       <c r="C57" t="n">
-        <v>6.588999999999999e-05</v>
+        <v>0.01253775</v>
       </c>
       <c r="D57" t="n">
-        <v>7.902999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11890.00</t>
+          <t>47.47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;San Miguel de Tucumán-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -1814,22 +1814,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8.41e-05</v>
+        <v>0.02016415</v>
       </c>
       <c r="C58" t="n">
-        <v>5.933e-05</v>
+        <v>0.01584866</v>
       </c>
       <c r="D58" t="n">
-        <v>8.058e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11890.00</t>
+          <t>48.59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;San Miguel de Tucumán-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -1838,22 +1838,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8.41e-05</v>
+        <v>0.02024267</v>
       </c>
       <c r="C59" t="n">
-        <v>4.712e-05</v>
+        <v>0.01414118</v>
       </c>
       <c r="D59" t="n">
-        <v>8.193e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11890.00</t>
+          <t>48.40</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;San Miguel de Tucumán-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -1862,22 +1862,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.41e-05</v>
+        <v>0.02016728</v>
       </c>
       <c r="C60" t="n">
-        <v>4.916e-05</v>
+        <v>0.01593482</v>
       </c>
       <c r="D60" t="n">
-        <v>8.123000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11890.00</t>
+          <t>48.59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;San Miguel de Tucumán-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.507e-05</v>
+        <v>0.02004505</v>
       </c>
       <c r="C61" t="n">
-        <v>6.577e-05</v>
+        <v>0.0182718</v>
       </c>
       <c r="D61" t="n">
-        <v>8.32e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11754.00</t>
+          <t>48.89</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -1910,22 +1910,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.507e-05</v>
+        <v>0.02011266</v>
       </c>
       <c r="C62" t="n">
-        <v>4.876e-05</v>
+        <v>0.01646176</v>
       </c>
       <c r="D62" t="n">
-        <v>8.247e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11754.00</t>
+          <t>48.72</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -1934,22 +1934,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.507e-05</v>
+        <v>0.02040287</v>
       </c>
       <c r="C63" t="n">
-        <v>6.764e-05</v>
+        <v>0.01423174</v>
       </c>
       <c r="D63" t="n">
-        <v>8.330000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11754.00</t>
+          <t>48.01</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>San Luis-&gt;Mendoza-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -1958,22 +1958,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.583e-05</v>
+        <v>0.0204507</v>
       </c>
       <c r="C64" t="n">
-        <v>5.912e-05</v>
+        <v>0.01572668</v>
       </c>
       <c r="D64" t="n">
-        <v>8.426e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11650.00</t>
+          <t>47.90</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8.583e-05</v>
+        <v>0.02042325</v>
       </c>
       <c r="C65" t="n">
-        <v>7.020999999999999e-05</v>
+        <v>0.01255538</v>
       </c>
       <c r="D65" t="n">
-        <v>8.453000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11650.00</t>
+          <t>47.96</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2006,22 +2006,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.583e-05</v>
+        <v>0.02048622</v>
       </c>
       <c r="C66" t="n">
-        <v>6.808999999999999e-05</v>
+        <v>0.01319257</v>
       </c>
       <c r="D66" t="n">
-        <v>8.516e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11650.00</t>
+          <t>47.81</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2030,22 +2030,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.583e-05</v>
+        <v>0.02042017</v>
       </c>
       <c r="C67" t="n">
-        <v>7.182e-05</v>
+        <v>0.0119335</v>
       </c>
       <c r="D67" t="n">
-        <v>8.549e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11650.00</t>
+          <t>47.97</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2054,22 +2054,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8.583e-05</v>
+        <v>0.02037969</v>
       </c>
       <c r="C68" t="n">
-        <v>5.531e-05</v>
+        <v>0.01210687</v>
       </c>
       <c r="D68" t="n">
-        <v>8.432000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11650.00</t>
+          <t>48.07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2078,22 +2078,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.583e-05</v>
+        <v>0.02026787</v>
       </c>
       <c r="C69" t="n">
-        <v>5.258e-05</v>
+        <v>0.01618996</v>
       </c>
       <c r="D69" t="n">
-        <v>8.462e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11650.00</t>
+          <t>48.34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2102,22 +2102,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.583e-05</v>
+        <v>0.02020743</v>
       </c>
       <c r="C70" t="n">
-        <v>6.153e-05</v>
+        <v>0.01679387</v>
       </c>
       <c r="D70" t="n">
-        <v>8.501e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11650.00</t>
+          <t>48.49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2126,22 +2126,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8.702e-05</v>
+        <v>0.02039636</v>
       </c>
       <c r="C71" t="n">
-        <v>4.786e-05</v>
+        <v>0.01283405</v>
       </c>
       <c r="D71" t="n">
-        <v>8.368e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11490.00</t>
+          <t>48.03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Resistencia-&gt;Corrientes-&gt;Posadas-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2150,22 +2150,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.734e-05</v>
+        <v>0.02045114</v>
       </c>
       <c r="C72" t="n">
-        <v>5.777e-05</v>
+        <v>0.01156875</v>
       </c>
       <c r="D72" t="n">
-        <v>8.59e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>47.90</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2174,22 +2174,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8.734e-05</v>
+        <v>0.02017259</v>
       </c>
       <c r="C73" t="n">
-        <v>5.553e-05</v>
+        <v>0.01477732</v>
       </c>
       <c r="D73" t="n">
-        <v>8.645e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.57</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2198,22 +2198,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8.734e-05</v>
+        <v>0.02034008</v>
       </c>
       <c r="C74" t="n">
-        <v>5.533e-05</v>
+        <v>0.01499841</v>
       </c>
       <c r="D74" t="n">
-        <v>8.546e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.16</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2222,22 +2222,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8.734e-05</v>
+        <v>0.02020786</v>
       </c>
       <c r="C75" t="n">
-        <v>5.675e-05</v>
+        <v>0.01619685</v>
       </c>
       <c r="D75" t="n">
-        <v>8.606999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2246,22 +2246,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8.734e-05</v>
+        <v>0.02006366</v>
       </c>
       <c r="C76" t="n">
-        <v>8.734e-05</v>
+        <v>0.01688079</v>
       </c>
       <c r="D76" t="n">
-        <v>8.734e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.84</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2270,22 +2270,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8.734e-05</v>
+        <v>0.02088913</v>
       </c>
       <c r="C77" t="n">
-        <v>4.961e-05</v>
+        <v>0.0124936</v>
       </c>
       <c r="D77" t="n">
-        <v>8.477e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>46.87</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2294,22 +2294,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8.734e-05</v>
+        <v>0.02066</v>
       </c>
       <c r="C78" t="n">
-        <v>6.993e-05</v>
+        <v>0.01367226</v>
       </c>
       <c r="D78" t="n">
-        <v>8.610000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>47.40</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2318,22 +2318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8.734e-05</v>
+        <v>0.02020226</v>
       </c>
       <c r="C79" t="n">
-        <v>7.569e-05</v>
+        <v>0.01714246</v>
       </c>
       <c r="D79" t="n">
-        <v>8.695999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2342,22 +2342,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8.734e-05</v>
+        <v>0.0205552</v>
       </c>
       <c r="C80" t="n">
-        <v>5.923e-05</v>
+        <v>0.01308145</v>
       </c>
       <c r="D80" t="n">
-        <v>8.603e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>47.65</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2366,22 +2366,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8.734e-05</v>
+        <v>0.02011737</v>
       </c>
       <c r="C81" t="n">
-        <v>5.042e-05</v>
+        <v>0.01607784</v>
       </c>
       <c r="D81" t="n">
-        <v>8.468e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.71</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2390,22 +2390,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>8.734e-05</v>
+        <v>0.02064368</v>
       </c>
       <c r="C82" t="n">
-        <v>6.122999999999999e-05</v>
+        <v>0.01169589</v>
       </c>
       <c r="D82" t="n">
-        <v>8.619e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2414,22 +2414,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8.734e-05</v>
+        <v>0.02018705</v>
       </c>
       <c r="C83" t="n">
-        <v>6.82e-05</v>
+        <v>0.01445362</v>
       </c>
       <c r="D83" t="n">
-        <v>8.598999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.54</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8.734e-05</v>
+        <v>0.02018135</v>
       </c>
       <c r="C84" t="n">
-        <v>6.09e-05</v>
+        <v>0.01459925</v>
       </c>
       <c r="D84" t="n">
-        <v>8.580999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.55</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2462,22 +2462,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8.734e-05</v>
+        <v>0.0200695</v>
       </c>
       <c r="C85" t="n">
-        <v>5.753e-05</v>
+        <v>0.01762844</v>
       </c>
       <c r="D85" t="n">
-        <v>8.643e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.83</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8.734e-05</v>
+        <v>0.02107212</v>
       </c>
       <c r="C86" t="n">
-        <v>6.719999999999999e-05</v>
+        <v>0.01217661</v>
       </c>
       <c r="D86" t="n">
-        <v>8.593e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>46.46</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2510,22 +2510,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.734e-05</v>
+        <v>0.0203004</v>
       </c>
       <c r="C87" t="n">
-        <v>6.834999999999999e-05</v>
+        <v>0.01760666</v>
       </c>
       <c r="D87" t="n">
-        <v>8.598999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.26</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2534,22 +2534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.734e-05</v>
+        <v>0.0200246</v>
       </c>
       <c r="C88" t="n">
-        <v>5.057e-05</v>
+        <v>0.01879471</v>
       </c>
       <c r="D88" t="n">
-        <v>8.474000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>11448.00</t>
+          <t>48.94</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2558,22 +2558,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.75e-05</v>
+        <v>0.02060147</v>
       </c>
       <c r="C89" t="n">
-        <v>6.655e-05</v>
+        <v>0.01290825</v>
       </c>
       <c r="D89" t="n">
-        <v>8.653999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>11428.00</t>
+          <t>47.54</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2582,22 +2582,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8.75e-05</v>
+        <v>0.02040511</v>
       </c>
       <c r="C90" t="n">
-        <v>6.09e-05</v>
+        <v>0.01631639</v>
       </c>
       <c r="D90" t="n">
-        <v>8.640999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>11428.00</t>
+          <t>48.01</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2606,22 +2606,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>8.75e-05</v>
+        <v>0.02089765</v>
       </c>
       <c r="C91" t="n">
-        <v>6.188e-05</v>
+        <v>0.01223528</v>
       </c>
       <c r="D91" t="n">
-        <v>8.666e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>11428.00</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2630,22 +2630,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>8.75e-05</v>
+        <v>0.02051384</v>
       </c>
       <c r="C92" t="n">
-        <v>5.918e-05</v>
+        <v>0.01218416</v>
       </c>
       <c r="D92" t="n">
-        <v>8.554e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>11428.00</t>
+          <t>47.75</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Santa Rosa</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2654,22 +2654,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>8.753e-05</v>
+        <v>0.02042361</v>
       </c>
       <c r="C93" t="n">
-        <v>5.705e-05</v>
+        <v>0.01350656</v>
       </c>
       <c r="D93" t="n">
-        <v>8.674999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.96</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2678,22 +2678,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>8.753e-05</v>
+        <v>0.02006414</v>
       </c>
       <c r="C94" t="n">
-        <v>5.392e-05</v>
+        <v>0.01723183</v>
       </c>
       <c r="D94" t="n">
-        <v>8.575e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.84</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8.753e-05</v>
+        <v>0.02017745</v>
       </c>
       <c r="C95" t="n">
-        <v>5.706e-05</v>
+        <v>0.01493843</v>
       </c>
       <c r="D95" t="n">
-        <v>8.677e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.56</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>8.753e-05</v>
+        <v>0.02025977</v>
       </c>
       <c r="C96" t="n">
-        <v>6.936999999999999e-05</v>
+        <v>0.01264279</v>
       </c>
       <c r="D96" t="n">
-        <v>8.564e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.36</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2750,22 +2750,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8.753e-05</v>
+        <v>0.02039619</v>
       </c>
       <c r="C97" t="n">
-        <v>6.936999999999999e-05</v>
+        <v>0.01354273</v>
       </c>
       <c r="D97" t="n">
-        <v>8.632e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.03</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2774,22 +2774,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8.753e-05</v>
+        <v>0.02046676</v>
       </c>
       <c r="C98" t="n">
-        <v>7.395e-05</v>
+        <v>0.01322002</v>
       </c>
       <c r="D98" t="n">
-        <v>8.673e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.86</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2798,22 +2798,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8.753e-05</v>
+        <v>0.0201493</v>
       </c>
       <c r="C99" t="n">
-        <v>5.706e-05</v>
+        <v>0.01537157</v>
       </c>
       <c r="D99" t="n">
-        <v>8.556e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.63</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2822,22 +2822,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8.753e-05</v>
+        <v>0.02081362</v>
       </c>
       <c r="C100" t="n">
-        <v>5.23e-05</v>
+        <v>0.01701882</v>
       </c>
       <c r="D100" t="n">
-        <v>8.647e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.05</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2846,22 +2846,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8.753e-05</v>
+        <v>0.02058023</v>
       </c>
       <c r="C101" t="n">
-        <v>4.992e-05</v>
+        <v>0.01890536</v>
       </c>
       <c r="D101" t="n">
-        <v>8.606999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.59</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2870,22 +2870,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>8.753e-05</v>
+        <v>0.02045043</v>
       </c>
       <c r="C102" t="n">
-        <v>6.433e-05</v>
+        <v>0.01225652</v>
       </c>
       <c r="D102" t="n">
-        <v>8.658e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.90</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2894,22 +2894,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8.753e-05</v>
+        <v>0.0200961</v>
       </c>
       <c r="C103" t="n">
-        <v>5.704e-05</v>
+        <v>0.01696258</v>
       </c>
       <c r="D103" t="n">
-        <v>8.525e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.76</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2918,22 +2918,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>8.753e-05</v>
+        <v>0.02043312</v>
       </c>
       <c r="C104" t="n">
-        <v>5.572e-05</v>
+        <v>0.01301512</v>
       </c>
       <c r="D104" t="n">
-        <v>8.453000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.94</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2942,22 +2942,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8.753e-05</v>
+        <v>0.02034886</v>
       </c>
       <c r="C105" t="n">
-        <v>5.738e-05</v>
+        <v>0.0128589</v>
       </c>
       <c r="D105" t="n">
-        <v>8.661e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.14</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2966,22 +2966,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8.753e-05</v>
+        <v>0.02039507</v>
       </c>
       <c r="C106" t="n">
-        <v>7.147000000000001e-05</v>
+        <v>0.01499244</v>
       </c>
       <c r="D106" t="n">
-        <v>8.601e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.03</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -2990,22 +2990,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8.753e-05</v>
+        <v>0.02015719</v>
       </c>
       <c r="C107" t="n">
-        <v>4.887e-05</v>
+        <v>0.01708992</v>
       </c>
       <c r="D107" t="n">
-        <v>8.621e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.61</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8.753e-05</v>
+        <v>0.0203469</v>
       </c>
       <c r="C108" t="n">
-        <v>7.09e-05</v>
+        <v>0.01541333</v>
       </c>
       <c r="D108" t="n">
-        <v>8.626e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.15</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3038,22 +3038,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>8.753e-05</v>
+        <v>0.02065959</v>
       </c>
       <c r="C109" t="n">
-        <v>5.738e-05</v>
+        <v>0.01279337</v>
       </c>
       <c r="D109" t="n">
-        <v>8.595e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.40</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3062,22 +3062,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8.753e-05</v>
+        <v>0.02007745</v>
       </c>
       <c r="C110" t="n">
-        <v>5.321e-05</v>
+        <v>0.01696691</v>
       </c>
       <c r="D110" t="n">
-        <v>8.609e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.81</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8.753e-05</v>
+        <v>0.0201982</v>
       </c>
       <c r="C111" t="n">
-        <v>5.682e-05</v>
+        <v>0.01712088</v>
       </c>
       <c r="D111" t="n">
-        <v>8.63e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.51</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3110,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8.753e-05</v>
+        <v>0.02017661</v>
       </c>
       <c r="C112" t="n">
-        <v>5.321e-05</v>
+        <v>0.01710639</v>
       </c>
       <c r="D112" t="n">
-        <v>8.684e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.56</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3134,22 +3134,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8.753e-05</v>
+        <v>0.02041817</v>
       </c>
       <c r="C113" t="n">
-        <v>5.393e-05</v>
+        <v>0.01228877</v>
       </c>
       <c r="D113" t="n">
-        <v>8.643e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.98</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3158,22 +3158,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8.753e-05</v>
+        <v>0.02102813</v>
       </c>
       <c r="C114" t="n">
-        <v>5.382e-05</v>
+        <v>0.01187325</v>
       </c>
       <c r="D114" t="n">
-        <v>8.523e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>46.56</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3182,22 +3182,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>8.753e-05</v>
+        <v>0.0204513</v>
       </c>
       <c r="C115" t="n">
-        <v>5.68e-05</v>
+        <v>0.0142041</v>
       </c>
       <c r="D115" t="n">
-        <v>8.578e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.90</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3206,22 +3206,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8.753e-05</v>
+        <v>0.02048422</v>
       </c>
       <c r="C116" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.01135504</v>
       </c>
       <c r="D116" t="n">
-        <v>8.648999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.82</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3230,22 +3230,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8.753e-05</v>
+        <v>0.020217</v>
       </c>
       <c r="C117" t="n">
-        <v>7.273e-05</v>
+        <v>0.0159475</v>
       </c>
       <c r="D117" t="n">
-        <v>8.691000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.46</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8.753e-05</v>
+        <v>0.02016008</v>
       </c>
       <c r="C118" t="n">
-        <v>4.967e-05</v>
+        <v>0.01684831</v>
       </c>
       <c r="D118" t="n">
-        <v>8.603e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.60</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3278,22 +3278,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.753e-05</v>
+        <v>0.02111182</v>
       </c>
       <c r="C119" t="n">
-        <v>7.616e-05</v>
+        <v>0.01143513</v>
       </c>
       <c r="D119" t="n">
-        <v>8.728e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>46.37</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3302,22 +3302,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>8.753e-05</v>
+        <v>0.02102458</v>
       </c>
       <c r="C120" t="n">
-        <v>5.581e-05</v>
+        <v>0.01304344</v>
       </c>
       <c r="D120" t="n">
-        <v>8.642e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>46.56</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3326,22 +3326,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>8.753e-05</v>
+        <v>0.0202419</v>
       </c>
       <c r="C121" t="n">
-        <v>5.562e-05</v>
+        <v>0.01618627</v>
       </c>
       <c r="D121" t="n">
-        <v>8.6e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.40</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3350,22 +3350,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.753e-05</v>
+        <v>0.02011721</v>
       </c>
       <c r="C122" t="n">
-        <v>5.856e-05</v>
+        <v>0.0158792</v>
       </c>
       <c r="D122" t="n">
-        <v>8.648999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.71</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3374,22 +3374,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8.753e-05</v>
+        <v>0.02018939</v>
       </c>
       <c r="C123" t="n">
-        <v>7.036e-05</v>
+        <v>0.01402499</v>
       </c>
       <c r="D123" t="n">
-        <v>8.685e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.53</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3398,22 +3398,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8.753e-05</v>
+        <v>0.02030638</v>
       </c>
       <c r="C124" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.01314267</v>
       </c>
       <c r="D124" t="n">
-        <v>8.627999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.25</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3422,22 +3422,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>8.753e-05</v>
+        <v>0.02029383</v>
       </c>
       <c r="C125" t="n">
-        <v>7.057e-05</v>
+        <v>0.01481294</v>
       </c>
       <c r="D125" t="n">
-        <v>8.618e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.28</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3446,22 +3446,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8.753e-05</v>
+        <v>0.02062427</v>
       </c>
       <c r="C126" t="n">
-        <v>4.967e-05</v>
+        <v>0.0124728</v>
       </c>
       <c r="D126" t="n">
-        <v>8.574e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>47.49</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3470,22 +3470,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8.753e-05</v>
+        <v>0.02008472</v>
       </c>
       <c r="C127" t="n">
-        <v>4.99e-05</v>
+        <v>0.01921797</v>
       </c>
       <c r="D127" t="n">
-        <v>8.582e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.79</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3494,22 +3494,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8.753e-05</v>
+        <v>0.0201317</v>
       </c>
       <c r="C128" t="n">
-        <v>4.967e-05</v>
+        <v>0.0155922</v>
       </c>
       <c r="D128" t="n">
-        <v>8.407999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.67</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3518,22 +3518,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>8.753e-05</v>
+        <v>0.02014867</v>
       </c>
       <c r="C129" t="n">
-        <v>7.111e-05</v>
+        <v>0.01476065</v>
       </c>
       <c r="D129" t="n">
-        <v>8.669e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>11424.00</t>
+          <t>48.63</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3542,22 +3542,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02005413</v>
       </c>
       <c r="C130" t="n">
-        <v>5.995e-05</v>
+        <v>0.0173475</v>
       </c>
       <c r="D130" t="n">
-        <v>8.634e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>48.87</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3566,22 +3566,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02080835</v>
       </c>
       <c r="C131" t="n">
-        <v>5.002e-05</v>
+        <v>0.01275628</v>
       </c>
       <c r="D131" t="n">
-        <v>8.495e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>47.06</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3590,22 +3590,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.020459</v>
       </c>
       <c r="C132" t="n">
-        <v>5.089e-05</v>
+        <v>0.01131835</v>
       </c>
       <c r="D132" t="n">
-        <v>8.616e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>47.88</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3614,22 +3614,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02074201</v>
       </c>
       <c r="C133" t="n">
-        <v>7.644000000000001e-05</v>
+        <v>0.01241239</v>
       </c>
       <c r="D133" t="n">
-        <v>8.739e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>47.21</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3638,22 +3638,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02040248</v>
       </c>
       <c r="C134" t="n">
-        <v>6.103e-05</v>
+        <v>0.0152035</v>
       </c>
       <c r="D134" t="n">
-        <v>8.716999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>48.01</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3662,22 +3662,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.0202696</v>
       </c>
       <c r="C135" t="n">
-        <v>5.588e-05</v>
+        <v>0.01430015</v>
       </c>
       <c r="D135" t="n">
-        <v>8.708e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>48.33</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02000562</v>
       </c>
       <c r="C136" t="n">
-        <v>4.911e-05</v>
+        <v>0.0197245</v>
       </c>
       <c r="D136" t="n">
-        <v>8.508000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>48.99</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3710,22 +3710,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02076401</v>
       </c>
       <c r="C137" t="n">
-        <v>6.103e-05</v>
+        <v>0.01123931</v>
       </c>
       <c r="D137" t="n">
-        <v>8.610000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>47.16</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3734,22 +3734,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02026933</v>
       </c>
       <c r="C138" t="n">
-        <v>7.121e-05</v>
+        <v>0.0125784</v>
       </c>
       <c r="D138" t="n">
-        <v>8.66e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>48.34</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3758,22 +3758,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02013487</v>
       </c>
       <c r="C139" t="n">
-        <v>6.56e-05</v>
+        <v>0.01638849</v>
       </c>
       <c r="D139" t="n">
-        <v>8.667e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>48.67</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3782,22 +3782,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02041648</v>
       </c>
       <c r="C140" t="n">
-        <v>5.073e-05</v>
+        <v>0.01381347</v>
       </c>
       <c r="D140" t="n">
-        <v>8.724e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>47.98</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02065105</v>
       </c>
       <c r="C141" t="n">
-        <v>6.475e-05</v>
+        <v>0.01178529</v>
       </c>
       <c r="D141" t="n">
-        <v>8.633e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>47.42</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3830,22 +3830,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02026492</v>
       </c>
       <c r="C142" t="n">
-        <v>5.878e-05</v>
+        <v>0.01288608</v>
       </c>
       <c r="D142" t="n">
-        <v>8.703e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3854,22 +3854,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.0202642</v>
       </c>
       <c r="C143" t="n">
-        <v>7.771e-05</v>
+        <v>0.01481984</v>
       </c>
       <c r="D143" t="n">
-        <v>8.778e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3878,22 +3878,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02065629</v>
       </c>
       <c r="C144" t="n">
-        <v>5.017e-05</v>
+        <v>0.01281853</v>
       </c>
       <c r="D144" t="n">
-        <v>8.537e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>47.41</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3902,22 +3902,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.830000000000001e-05</v>
+        <v>0.02031565</v>
       </c>
       <c r="C145" t="n">
-        <v>5.739e-05</v>
+        <v>0.0114101</v>
       </c>
       <c r="D145" t="n">
-        <v>8.657000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>11324.00</t>
+          <t>48.22</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3926,22 +3926,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.981e-05</v>
+        <v>0.0200839</v>
       </c>
       <c r="C146" t="n">
-        <v>6.451e-05</v>
+        <v>0.01737466</v>
       </c>
       <c r="D146" t="n">
-        <v>8.63e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>11133.00</t>
+          <t>48.79</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3950,22 +3950,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.981e-05</v>
+        <v>0.02031368</v>
       </c>
       <c r="C147" t="n">
-        <v>5.538e-05</v>
+        <v>0.01396901</v>
       </c>
       <c r="D147" t="n">
-        <v>8.813e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>11133.00</t>
+          <t>48.23</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3974,22 +3974,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.981e-05</v>
+        <v>0.02008136</v>
       </c>
       <c r="C148" t="n">
-        <v>5.2e-05</v>
+        <v>0.01753892</v>
       </c>
       <c r="D148" t="n">
-        <v>8.735e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>11133.00</t>
+          <t>48.80</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -3998,22 +3998,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8.981e-05</v>
+        <v>0.02036977</v>
       </c>
       <c r="C149" t="n">
-        <v>6.101e-05</v>
+        <v>0.01488327</v>
       </c>
       <c r="D149" t="n">
-        <v>8.854e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>11133.00</t>
+          <t>48.09</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4022,22 +4022,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>8.981e-05</v>
+        <v>0.02059553</v>
       </c>
       <c r="C150" t="n">
-        <v>5.8e-05</v>
+        <v>0.01386615</v>
       </c>
       <c r="D150" t="n">
-        <v>8.845e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>11133.00</t>
+          <t>47.55</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4046,22 +4046,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>8.981e-05</v>
+        <v>0.02050925</v>
       </c>
       <c r="C151" t="n">
-        <v>5.461e-05</v>
+        <v>0.014977</v>
       </c>
       <c r="D151" t="n">
-        <v>8.776999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>11133.00</t>
+          <t>47.76</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4070,22 +4070,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>8.981e-05</v>
+        <v>0.02064378</v>
       </c>
       <c r="C152" t="n">
-        <v>5.382e-05</v>
+        <v>0.01072004</v>
       </c>
       <c r="D152" t="n">
-        <v>8.762e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>11133.00</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4094,22 +4094,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>8.981e-05</v>
+        <v>0.02019835</v>
       </c>
       <c r="C153" t="n">
-        <v>6.002e-05</v>
+        <v>0.01659327</v>
       </c>
       <c r="D153" t="n">
-        <v>8.807e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>11133.00</t>
+          <t>48.51</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4118,22 +4118,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8.981e-05</v>
+        <v>0.02006506</v>
       </c>
       <c r="C154" t="n">
-        <v>6.943e-05</v>
+        <v>0.01788321</v>
       </c>
       <c r="D154" t="n">
-        <v>8.862e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>11133.00</t>
+          <t>48.84</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4142,22 +4142,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9.098e-05</v>
+        <v>0.02022788</v>
       </c>
       <c r="C155" t="n">
-        <v>5.944e-05</v>
+        <v>0.01520199</v>
       </c>
       <c r="D155" t="n">
-        <v>8.801000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.44</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4166,22 +4166,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9.098e-05</v>
+        <v>0.02032123</v>
       </c>
       <c r="C156" t="n">
-        <v>6.431999999999999e-05</v>
+        <v>0.01233276</v>
       </c>
       <c r="D156" t="n">
-        <v>8.784999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.21</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4190,22 +4190,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9.098e-05</v>
+        <v>0.02020185</v>
       </c>
       <c r="C157" t="n">
-        <v>6.592000000000001e-05</v>
+        <v>0.01245967</v>
       </c>
       <c r="D157" t="n">
-        <v>8.925e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.50</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4214,22 +4214,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9.098e-05</v>
+        <v>0.02052883</v>
       </c>
       <c r="C158" t="n">
-        <v>5.51e-05</v>
+        <v>0.01465258</v>
       </c>
       <c r="D158" t="n">
-        <v>8.869000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.71</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4238,22 +4238,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9.098e-05</v>
+        <v>0.02030597</v>
       </c>
       <c r="C159" t="n">
-        <v>7.196e-05</v>
+        <v>0.010861</v>
       </c>
       <c r="D159" t="n">
-        <v>9.002e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.25</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4262,22 +4262,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9.098e-05</v>
+        <v>0.02058189</v>
       </c>
       <c r="C160" t="n">
-        <v>7.253e-05</v>
+        <v>0.01147696</v>
       </c>
       <c r="D160" t="n">
-        <v>8.994e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.59</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9.098e-05</v>
+        <v>0.02043012</v>
       </c>
       <c r="C161" t="n">
-        <v>5.583e-05</v>
+        <v>0.01189325</v>
       </c>
       <c r="D161" t="n">
-        <v>8.94e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4310,22 +4310,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9.098e-05</v>
+        <v>0.02079323</v>
       </c>
       <c r="C162" t="n">
-        <v>6.491e-05</v>
+        <v>0.01137031</v>
       </c>
       <c r="D162" t="n">
-        <v>8.897e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.09</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4334,22 +4334,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9.098e-05</v>
+        <v>0.02043725</v>
       </c>
       <c r="C163" t="n">
-        <v>6.086e-05</v>
+        <v>0.01135002</v>
       </c>
       <c r="D163" t="n">
-        <v>8.892e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.93</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4358,22 +4358,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9.098e-05</v>
+        <v>0.02056838</v>
       </c>
       <c r="C164" t="n">
-        <v>7.253e-05</v>
+        <v>0.01316787</v>
       </c>
       <c r="D164" t="n">
-        <v>8.869000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.62</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4382,22 +4382,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9.098e-05</v>
+        <v>0.02033076</v>
       </c>
       <c r="C165" t="n">
-        <v>7.253e-05</v>
+        <v>0.01124639</v>
       </c>
       <c r="D165" t="n">
-        <v>8.957e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.19</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4406,22 +4406,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9.098e-05</v>
+        <v>0.02019753</v>
       </c>
       <c r="C166" t="n">
-        <v>6.813e-05</v>
+        <v>0.01466601</v>
       </c>
       <c r="D166" t="n">
-        <v>8.914e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.51</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4430,22 +4430,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9.098e-05</v>
+        <v>0.02047059</v>
       </c>
       <c r="C167" t="n">
-        <v>5.222e-05</v>
+        <v>0.0143944</v>
       </c>
       <c r="D167" t="n">
-        <v>8.937000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.85</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4454,22 +4454,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9.098e-05</v>
+        <v>0.02025215</v>
       </c>
       <c r="C168" t="n">
-        <v>4.851e-05</v>
+        <v>0.0143741</v>
       </c>
       <c r="D168" t="n">
-        <v>8.845e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.38</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4478,22 +4478,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9.098e-05</v>
+        <v>0.02048304</v>
       </c>
       <c r="C169" t="n">
-        <v>5.503e-05</v>
+        <v>0.01166673</v>
       </c>
       <c r="D169" t="n">
-        <v>8.897e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.82</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4502,22 +4502,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9.098e-05</v>
+        <v>0.02044196</v>
       </c>
       <c r="C170" t="n">
-        <v>5.814e-05</v>
+        <v>0.01091499</v>
       </c>
       <c r="D170" t="n">
-        <v>8.993e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.92</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4526,22 +4526,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9.098e-05</v>
+        <v>0.0200901</v>
       </c>
       <c r="C171" t="n">
-        <v>7.487000000000001e-05</v>
+        <v>0.01686977</v>
       </c>
       <c r="D171" t="n">
-        <v>9.004e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.78</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4550,22 +4550,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9.098e-05</v>
+        <v>0.02023336</v>
       </c>
       <c r="C172" t="n">
-        <v>5.814e-05</v>
+        <v>0.01213464</v>
       </c>
       <c r="D172" t="n">
-        <v>8.957e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.42</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4574,22 +4574,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9.098e-05</v>
+        <v>0.02023555</v>
       </c>
       <c r="C173" t="n">
-        <v>6.805e-05</v>
+        <v>0.01245154</v>
       </c>
       <c r="D173" t="n">
-        <v>9.022e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.42</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4598,22 +4598,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9.098e-05</v>
+        <v>0.0203739</v>
       </c>
       <c r="C174" t="n">
-        <v>7.93e-05</v>
+        <v>0.01553807</v>
       </c>
       <c r="D174" t="n">
-        <v>9.074e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.08</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4622,22 +4622,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9.098e-05</v>
+        <v>0.02051563</v>
       </c>
       <c r="C175" t="n">
-        <v>7.562e-05</v>
+        <v>0.01244766</v>
       </c>
       <c r="D175" t="n">
-        <v>9.041e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.74</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4646,22 +4646,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9.098e-05</v>
+        <v>0.02017478</v>
       </c>
       <c r="C176" t="n">
-        <v>5.064e-05</v>
+        <v>0.01739361</v>
       </c>
       <c r="D176" t="n">
-        <v>8.958000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.57</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4670,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9.098e-05</v>
+        <v>0.02094787</v>
       </c>
       <c r="C177" t="n">
-        <v>6.046e-05</v>
+        <v>0.01126386</v>
       </c>
       <c r="D177" t="n">
-        <v>8.893e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>46.74</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4694,22 +4694,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9.098e-05</v>
+        <v>0.02088026</v>
       </c>
       <c r="C178" t="n">
-        <v>5.848e-05</v>
+        <v>0.01104287</v>
       </c>
       <c r="D178" t="n">
-        <v>8.937000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>46.89</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4718,22 +4718,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9.098e-05</v>
+        <v>0.0201258</v>
       </c>
       <c r="C179" t="n">
-        <v>5.076e-05</v>
+        <v>0.01574536</v>
       </c>
       <c r="D179" t="n">
-        <v>8.915999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.69</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4742,22 +4742,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>9.098e-05</v>
+        <v>0.02046749</v>
       </c>
       <c r="C180" t="n">
-        <v>7.126000000000001e-05</v>
+        <v>0.0131986</v>
       </c>
       <c r="D180" t="n">
-        <v>8.817e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.86</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4766,22 +4766,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>9.098e-05</v>
+        <v>0.02039881</v>
       </c>
       <c r="C181" t="n">
-        <v>6.849e-05</v>
+        <v>0.0147791</v>
       </c>
       <c r="D181" t="n">
-        <v>8.907e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.02</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4790,22 +4790,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9.098e-05</v>
+        <v>0.02027352</v>
       </c>
       <c r="C182" t="n">
-        <v>6.617e-05</v>
+        <v>0.01581536</v>
       </c>
       <c r="D182" t="n">
-        <v>8.991e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.33</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4814,22 +4814,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>9.098e-05</v>
+        <v>0.0210785</v>
       </c>
       <c r="C183" t="n">
-        <v>5.883e-05</v>
+        <v>0.01114387</v>
       </c>
       <c r="D183" t="n">
-        <v>8.936e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>46.44</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4838,22 +4838,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>9.098e-05</v>
+        <v>0.02059543</v>
       </c>
       <c r="C184" t="n">
-        <v>5.642e-05</v>
+        <v>0.0131122</v>
       </c>
       <c r="D184" t="n">
-        <v>8.886999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.55</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4862,22 +4862,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9.098e-05</v>
+        <v>0.02036884</v>
       </c>
       <c r="C185" t="n">
-        <v>4.945e-05</v>
+        <v>0.0111242</v>
       </c>
       <c r="D185" t="n">
-        <v>8.815e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.09</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>9.098e-05</v>
+        <v>0.0201435</v>
       </c>
       <c r="C186" t="n">
-        <v>7.495000000000001e-05</v>
+        <v>0.01647363</v>
       </c>
       <c r="D186" t="n">
-        <v>8.962999999999999e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.64</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4910,22 +4910,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9.098e-05</v>
+        <v>0.02064271</v>
       </c>
       <c r="C187" t="n">
-        <v>5.604e-05</v>
+        <v>0.01186859</v>
       </c>
       <c r="D187" t="n">
-        <v>8.974e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4934,22 +4934,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>9.098e-05</v>
+        <v>0.02058199</v>
       </c>
       <c r="C188" t="n">
-        <v>7.977e-05</v>
+        <v>0.01415959</v>
       </c>
       <c r="D188" t="n">
-        <v>9.035e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.59</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4958,22 +4958,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>9.098e-05</v>
+        <v>0.02011386</v>
       </c>
       <c r="C189" t="n">
-        <v>7.588999999999999e-05</v>
+        <v>0.01721827</v>
       </c>
       <c r="D189" t="n">
-        <v>9.001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.72</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -4982,22 +4982,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9.098e-05</v>
+        <v>0.02031763</v>
       </c>
       <c r="C190" t="n">
-        <v>4.945e-05</v>
+        <v>0.01282049</v>
       </c>
       <c r="D190" t="n">
-        <v>8.803e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.22</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5006,22 +5006,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>9.098e-05</v>
+        <v>0.02003523</v>
       </c>
       <c r="C191" t="n">
-        <v>9.098e-05</v>
+        <v>0.01883155</v>
       </c>
       <c r="D191" t="n">
-        <v>9.098e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.91</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>9.098e-05</v>
+        <v>0.02043953</v>
       </c>
       <c r="C192" t="n">
-        <v>6.592000000000001e-05</v>
+        <v>0.01301296</v>
       </c>
       <c r="D192" t="n">
-        <v>8.949e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.92</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5054,22 +5054,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9.098e-05</v>
+        <v>0.0206066</v>
       </c>
       <c r="C193" t="n">
-        <v>4.94e-05</v>
+        <v>0.01117723</v>
       </c>
       <c r="D193" t="n">
-        <v>8.724e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.53</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5078,22 +5078,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>9.098e-05</v>
+        <v>0.02020459</v>
       </c>
       <c r="C194" t="n">
-        <v>7.64e-05</v>
+        <v>0.01441084</v>
       </c>
       <c r="D194" t="n">
-        <v>9.037e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.49</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5102,22 +5102,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>9.098e-05</v>
+        <v>0.02039864</v>
       </c>
       <c r="C195" t="n">
-        <v>6.707000000000001e-05</v>
+        <v>0.01074447</v>
       </c>
       <c r="D195" t="n">
-        <v>8.937000000000001e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.02</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5126,22 +5126,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>9.098e-05</v>
+        <v>0.02085081</v>
       </c>
       <c r="C196" t="n">
-        <v>5.909e-05</v>
+        <v>0.01141833</v>
       </c>
       <c r="D196" t="n">
-        <v>8.915e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>46.96</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5150,22 +5150,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>9.098e-05</v>
+        <v>0.02033951</v>
       </c>
       <c r="C197" t="n">
-        <v>4.963e-05</v>
+        <v>0.0123754</v>
       </c>
       <c r="D197" t="n">
-        <v>8.859e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.17</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5174,22 +5174,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>9.098e-05</v>
+        <v>0.02024375</v>
       </c>
       <c r="C198" t="n">
-        <v>6.813e-05</v>
+        <v>0.0149535</v>
       </c>
       <c r="D198" t="n">
-        <v>8.975e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.40</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5198,22 +5198,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>9.098e-05</v>
+        <v>0.02029261</v>
       </c>
       <c r="C199" t="n">
-        <v>5.995e-05</v>
+        <v>0.01217146</v>
       </c>
       <c r="D199" t="n">
-        <v>8.892e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.28</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5222,22 +5222,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>9.098e-05</v>
+        <v>0.02035216</v>
       </c>
       <c r="C200" t="n">
-        <v>7.824e-05</v>
+        <v>0.01327389</v>
       </c>
       <c r="D200" t="n">
-        <v>9.07e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.13</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5246,22 +5246,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>9.098e-05</v>
+        <v>0.02053031</v>
       </c>
       <c r="C201" t="n">
-        <v>7.538e-05</v>
+        <v>0.01134005</v>
       </c>
       <c r="D201" t="n">
-        <v>9.043e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>47.71</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -5270,22 +5270,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>9.098e-05</v>
+        <v>0.02012516</v>
       </c>
       <c r="C202" t="n">
-        <v>5.482e-05</v>
+        <v>0.01386705</v>
       </c>
       <c r="D202" t="n">
-        <v>8.931e-05</v>
+        <v>0.02</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>10991.00</t>
+          <t>48.69</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Mendoza-&gt;San Juan-&gt;La Rioja-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Viedma-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;Córdoba-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;San Luis</t>
+          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>

--- a/TP N3/Excels/AG_200Ciclos_Torneo_Elitismo.xlsx
+++ b/TP N3/Excels/AG_200Ciclos_Torneo_Elitismo.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Max_Fitness</t>
+          <t>Max_FO</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Min_Fitness</t>
+          <t>Min_FO</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AVG_Fitness</t>
+          <t>AVG_FO</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02493687</v>
+        <v>4.301e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01729129</v>
+        <v>3.213e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>3.712e-05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39.10</t>
+          <t>23249.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Formosa-&gt;CABA-&gt;San Miguel de Tucumán-&gt;La Plata-&gt;Córdoba-&gt;Neuquén-&gt;San Salvador de Jujuy-&gt;Rawson-&gt;Santa Rosa-&gt;Ushuaia-&gt;Río Gallegos-&gt;San Fernando del Valle de Catamarca-&gt;Salta-&gt;Corrientes-&gt;Paraná-&gt;Santa Fe-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Luis-&gt;Viedma-&gt;Posadas-&gt;Santiago del Estero</t>
+          <t>Santa Fe-&gt;Córdoba-&gt;Paraná-&gt;Viedma-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;La Rioja-&gt;San Salvador de Jujuy-&gt;Santa Rosa-&gt;San Luis-&gt;Santiago del Estero-&gt;Mendoza-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Corrientes-&gt;Neuquén-&gt;Resistencia-&gt;Rawson-&gt;San Juan-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán</t>
         </is>
       </c>
     </row>
@@ -494,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02277599</v>
+        <v>4.764e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01559033</v>
+        <v>3.507e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>4.261e-05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>42.91</t>
+          <t>20990.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Santa Rosa-&gt;Salta-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;San Luis-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;Paraná-&gt;San Salvador de Jujuy-&gt;La Plata-&gt;Neuquén</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Neuquén-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -518,22 +518,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02108637</v>
+        <v>5.194e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01661129</v>
+        <v>3.864e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>4.628e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46.42</t>
+          <t>19254.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;CABA-&gt;Mendoza-&gt;Rawson-&gt;San Juan-&gt;Neuquén-&gt;Salta-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;La Plata-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02181189</v>
+        <v>5.194e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01756921</v>
+        <v>4.764e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>4.929e-05</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>44.85</t>
+          <t>19254.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;San Luis-&gt;Neuquén-&gt;Salta-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;CABA-&gt;San Salvador de Jujuy-&gt;La Plata-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -566,22 +566,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02111263</v>
+        <v>5.194e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01726601</v>
+        <v>4.514e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>5.173e-05</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46.37</t>
+          <t>19254.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -590,22 +590,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02060843</v>
+        <v>5.194e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01443625</v>
+        <v>5.064e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>5.189e-05</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>47.52</t>
+          <t>19254.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -614,22 +614,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02016494</v>
+        <v>5.194e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01546291</v>
+        <v>5.074e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02</v>
+        <v>5.191e-05</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>48.59</t>
+          <t>19254.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02013644</v>
+        <v>5.194e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01641146</v>
+        <v>3.77e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02</v>
+        <v>5.165e-05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>48.66</t>
+          <t>19254.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -662,22 +662,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02011209</v>
+        <v>5.282e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01632488</v>
+        <v>3.738e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02</v>
+        <v>5.135e-05</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>48.72</t>
+          <t>18932.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;Córdoba-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02013569</v>
+        <v>5.455e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01413839</v>
+        <v>4.801e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02</v>
+        <v>5.237e-05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>48.66</t>
+          <t>18331.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Neuquén-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02010346</v>
+        <v>5.566e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01782161</v>
+        <v>5.237e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02</v>
+        <v>5.369e-05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>48.74</t>
+          <t>17966.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;CABA-&gt;Neuquén-&gt;La Plata-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -734,22 +734,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02059767</v>
+        <v>5.566e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01919677</v>
+        <v>5.126e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02</v>
+        <v>5.545e-05</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>47.55</t>
+          <t>17966.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -758,22 +758,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02044438</v>
+        <v>5.814e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01711559</v>
+        <v>4.314e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02</v>
+        <v>5.515e-05</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>47.91</t>
+          <t>17199.00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Rioja-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -782,22 +782,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02381226</v>
+        <v>5.814e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01807932</v>
+        <v>5.564e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02</v>
+        <v>5.66e-05</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>17199.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -806,22 +806,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02222811</v>
+        <v>5.814e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01596955</v>
+        <v>5.814e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02</v>
+        <v>5.814e-05</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>43.99</t>
+          <t>17199.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -830,22 +830,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02043873</v>
+        <v>5.814e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01305771</v>
+        <v>5.814e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02</v>
+        <v>5.814e-05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>47.93</t>
+          <t>17199.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -854,22 +854,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02020152</v>
+        <v>6.02e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01551588</v>
+        <v>5.277e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02</v>
+        <v>5.801e-05</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>48.50</t>
+          <t>16610.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Córdoba-&gt;Paraná-&gt;Santa Fe-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
         </is>
       </c>
     </row>
@@ -878,22 +878,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02016459</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01953885</v>
+        <v>5.695e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02</v>
+        <v>5.881e-05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>48.59</t>
+          <t>16080.00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -902,22 +902,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02061645</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01325742</v>
+        <v>4.282e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02</v>
+        <v>6.036e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>47.50</t>
+          <t>16080.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Santiago del Estero-&gt;Formosa-&gt;Corrientes-&gt;San Luis-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -926,22 +926,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02062466</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01610122</v>
+        <v>4.2e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02</v>
+        <v>6.179e-05</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>47.49</t>
+          <t>16080.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -950,22 +950,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0204046</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01628196</v>
+        <v>5.43e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02</v>
+        <v>6.175e-05</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>48.01</t>
+          <t>16080.00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -974,22 +974,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02006623</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01820777</v>
+        <v>4.073e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02</v>
+        <v>6.161e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>48.83</t>
+          <t>16080.00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -998,22 +998,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02038213</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01340564</v>
+        <v>5.488e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02</v>
+        <v>6.206999999999999e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>48.06</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1022,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02061334</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01240503</v>
+        <v>4.561e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02</v>
+        <v>6.203e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>47.51</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02006437</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01796511</v>
+        <v>5.044e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02</v>
+        <v>6.294e-05</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>48.84</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02014346</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01793532</v>
+        <v>5.482e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02</v>
+        <v>6.291000000000001e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>48.64</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1094,22 +1094,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02024371</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01467705</v>
+        <v>5.493e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02</v>
+        <v>6.312000000000001e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>48.40</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;Posadas-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Luis</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1118,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02074815</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01393088</v>
+        <v>4.761e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02</v>
+        <v>6.303e-05</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>47.20</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1142,22 +1142,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02072086</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01383305</v>
+        <v>5.876e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02</v>
+        <v>6.325000000000001e-05</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>47.26</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02004397</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0186201</v>
+        <v>5.216e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02</v>
+        <v>6.312000000000001e-05</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>48.89</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1190,22 +1190,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02022621</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01366157</v>
+        <v>5.308e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02</v>
+        <v>6.314e-05</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>48.44</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1214,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02016215</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01403673</v>
+        <v>5.297e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02</v>
+        <v>6.303e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>48.60</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1238,22 +1238,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02021593</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01659304</v>
+        <v>5.186e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02</v>
+        <v>6.297e-05</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>48.47</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Corrientes-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1262,22 +1262,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02008916</v>
+        <v>6.334e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01822917</v>
+        <v>6.316e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02</v>
+        <v>6.334e-05</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>48.78</t>
+          <t>15787.00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02025223</v>
+        <v>6.416e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01361961</v>
+        <v>4.558e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02</v>
+        <v>6.289e-05</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>48.38</t>
+          <t>15587.00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;San Luis-&gt;Formosa-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Córdoba-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1310,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02075337</v>
+        <v>6.418999999999999e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01459704</v>
+        <v>4.246e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02</v>
+        <v>6.259e-05</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>47.18</t>
+          <t>15579.00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Córdoba-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1334,22 +1334,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02054879</v>
+        <v>6.418999999999999e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01529959</v>
+        <v>6.416e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02</v>
+        <v>6.417e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>47.66</t>
+          <t>15579.00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Córdoba-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1358,22 +1358,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02045386</v>
+        <v>6.418999999999999e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01581691</v>
+        <v>5.678e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02</v>
+        <v>6.384999999999999e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>47.89</t>
+          <t>15579.00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Posadas</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Córdoba-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1382,22 +1382,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02033011</v>
+        <v>6.628e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01766599</v>
+        <v>5.382e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02</v>
+        <v>6.402e-05</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>48.19</t>
+          <t>15088.00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Rawson-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02057471</v>
+        <v>6.628e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01181581</v>
+        <v>4.863e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02</v>
+        <v>6.439999999999999e-05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>47.60</t>
+          <t>15088.00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1430,22 +1430,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02042319</v>
+        <v>6.628e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01236168</v>
+        <v>5.12e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02</v>
+        <v>6.598e-05</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>47.96</t>
+          <t>15088.00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1454,22 +1454,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02028943</v>
+        <v>6.628e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01240558</v>
+        <v>6.046e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02</v>
+        <v>6.609e-05</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>48.29</t>
+          <t>15088.00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1478,22 +1478,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02019824</v>
+        <v>6.679e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01446781</v>
+        <v>6.03e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02</v>
+        <v>6.607e-05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>48.51</t>
+          <t>14972.00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1502,22 +1502,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02052927</v>
+        <v>6.679e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01254871</v>
+        <v>6.536e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02</v>
+        <v>6.643999999999999e-05</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>47.71</t>
+          <t>14972.00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02089939</v>
+        <v>6.679e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01168174</v>
+        <v>6.421e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02</v>
+        <v>6.674e-05</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>14972.00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1550,22 +1550,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0203679</v>
+        <v>6.802e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01719821</v>
+        <v>6.491e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02</v>
+        <v>6.679e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>48.10</t>
+          <t>14702.00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1574,22 +1574,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02012765</v>
+        <v>6.882e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0178939</v>
+        <v>5.349e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02</v>
+        <v>6.703e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>48.68</t>
+          <t>14530.00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1598,22 +1598,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0203688</v>
+        <v>6.882e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01332414</v>
+        <v>4.989e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02</v>
+        <v>6.830000000000001e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>48.09</t>
+          <t>14530.00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1622,22 +1622,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02042809</v>
+        <v>6.882e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01246425</v>
+        <v>4.819e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02</v>
+        <v>6.806e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>14530.00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1646,22 +1646,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02022691</v>
+        <v>6.882e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01475125</v>
+        <v>4.486e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02</v>
+        <v>6.834e-05</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>48.44</t>
+          <t>14530.00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1670,22 +1670,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02023165</v>
+        <v>6.882e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01415459</v>
+        <v>5.679e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02</v>
+        <v>6.831e-05</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>48.43</t>
+          <t>14530.00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1694,22 +1694,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02026744</v>
+        <v>6.882e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01478081</v>
+        <v>6.051e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02</v>
+        <v>6.859000000000001e-05</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>48.34</t>
+          <t>14530.00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1718,22 +1718,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02039368</v>
+        <v>6.882e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01747077</v>
+        <v>5.921e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02</v>
+        <v>6.846000000000001e-05</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>14530.00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1742,22 +1742,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02052349</v>
+        <v>6.882e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01220693</v>
+        <v>6.415e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02</v>
+        <v>6.873e-05</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>47.72</t>
+          <t>14530.00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1766,22 +1766,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0202595</v>
+        <v>6.882e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01589119</v>
+        <v>5.864e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02</v>
+        <v>6.824e-05</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>48.36</t>
+          <t>14530.00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;San Miguel de Tucumán-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;Resistencia</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1790,22 +1790,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02062928</v>
+        <v>6.882e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01253775</v>
+        <v>6.062e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02</v>
+        <v>6.851000000000001e-05</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>47.47</t>
+          <t>14530.00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1814,22 +1814,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02016415</v>
+        <v>7.126000000000001e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01584866</v>
+        <v>4.708e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02</v>
+        <v>6.81e-05</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>48.59</t>
+          <t>14034.00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1838,22 +1838,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02024267</v>
+        <v>7.126000000000001e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01414118</v>
+        <v>5.939e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02</v>
+        <v>6.991e-05</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>48.40</t>
+          <t>14034.00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1862,22 +1862,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02016728</v>
+        <v>7.126000000000001e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01593482</v>
+        <v>6.049e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02</v>
+        <v>7.1e-05</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>48.59</t>
+          <t>14034.00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02004505</v>
+        <v>7.126000000000001e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0182718</v>
+        <v>4.972e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02</v>
+        <v>7.033e-05</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>48.89</t>
+          <t>14034.00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1910,22 +1910,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02011266</v>
+        <v>7.126000000000001e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01646176</v>
+        <v>5.169e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02</v>
+        <v>7.059999999999999e-05</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>48.72</t>
+          <t>14034.00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1934,22 +1934,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02040287</v>
+        <v>7.126000000000001e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01423174</v>
+        <v>6.046e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02</v>
+        <v>7.104e-05</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>48.01</t>
+          <t>14034.00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Santa Fe-&gt;Paraná-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1958,22 +1958,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0204507</v>
+        <v>7.126000000000001e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01572668</v>
+        <v>5.39e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02</v>
+        <v>7.07e-05</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>47.90</t>
+          <t>14034.00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02042325</v>
+        <v>7.399e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01255538</v>
+        <v>7.126000000000001e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02</v>
+        <v>7.131000000000001e-05</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>47.96</t>
+          <t>13515.00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2006,22 +2006,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02048622</v>
+        <v>7.399e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01319257</v>
+        <v>5.427e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02</v>
+        <v>7.156999999999999e-05</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>47.81</t>
+          <t>13515.00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2030,22 +2030,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02042017</v>
+        <v>7.399e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0119335</v>
+        <v>7.164999999999999e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02</v>
+        <v>7.394e-05</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>47.97</t>
+          <t>13515.00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2054,22 +2054,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02037969</v>
+        <v>7.399e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01210687</v>
+        <v>5.844e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02</v>
+        <v>7.368e-05</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>48.07</t>
+          <t>13515.00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Corrientes-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Resistencia-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2078,22 +2078,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02026787</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01618996</v>
+        <v>7.399e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02</v>
+        <v>7.4e-05</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>48.34</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2102,22 +2102,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02020743</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01679387</v>
+        <v>5.378e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02</v>
+        <v>7.365e-05</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>48.49</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2126,22 +2126,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02039636</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01283405</v>
+        <v>6.365e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02</v>
+        <v>7.368999999999999e-05</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2150,22 +2150,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02045114</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01156875</v>
+        <v>5.082e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>0.02</v>
+        <v>7.34e-05</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>47.90</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2174,22 +2174,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02017259</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01477732</v>
+        <v>7.242e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02</v>
+        <v>7.412e-05</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>48.57</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2198,22 +2198,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02034008</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01499841</v>
+        <v>6.844e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02</v>
+        <v>7.404e-05</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>48.16</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2222,22 +2222,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02020786</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01619685</v>
+        <v>6.429e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02</v>
+        <v>7.385000000000001e-05</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>48.49</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2246,22 +2246,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02006366</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01688079</v>
+        <v>6.106e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0.02</v>
+        <v>7.389e-05</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>48.84</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2270,22 +2270,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.02088913</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0124936</v>
+        <v>6.245e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02</v>
+        <v>7.376e-05</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>46.87</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2294,22 +2294,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02066</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01367226</v>
+        <v>7.31e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02</v>
+        <v>7.413e-05</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>47.40</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2318,22 +2318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02020226</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01714246</v>
+        <v>7.148999999999999e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>0.02</v>
+        <v>7.41e-05</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>48.50</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2342,22 +2342,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0205552</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01308145</v>
+        <v>4.921e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02</v>
+        <v>7.354e-05</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>47.65</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2366,22 +2366,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02011737</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01607784</v>
+        <v>6.515e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02</v>
+        <v>7.396e-05</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>48.71</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2390,22 +2390,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02064368</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01169589</v>
+        <v>4.882e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02</v>
+        <v>7.247e-05</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>47.44</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2414,22 +2414,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.02018705</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01445362</v>
+        <v>6.476e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02</v>
+        <v>7.396e-05</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>48.54</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02018135</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>0.01459925</v>
+        <v>6.256e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02</v>
+        <v>7.385000000000001e-05</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>48.55</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2462,22 +2462,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0200695</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01762844</v>
+        <v>5.345e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02</v>
+        <v>7.321e-05</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>48.83</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02107212</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01217661</v>
+        <v>6.041e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02</v>
+        <v>7.347e-05</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>46.46</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2510,22 +2510,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0203004</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01760666</v>
+        <v>7.279e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.02</v>
+        <v>7.412e-05</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2534,22 +2534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0200246</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01879471</v>
+        <v>5.989e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02</v>
+        <v>7.366e-05</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>48.94</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2558,22 +2558,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02060147</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01290825</v>
+        <v>5.85e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02</v>
+        <v>7.373e-05</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>47.54</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2582,22 +2582,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02040511</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01631639</v>
+        <v>6.437e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02</v>
+        <v>7.374e-05</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>48.01</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2606,22 +2606,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.02089765</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01223528</v>
+        <v>5.082e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02</v>
+        <v>7.363e-05</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2630,22 +2630,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02051384</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01218416</v>
+        <v>4.582e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02</v>
+        <v>7.326999999999999e-05</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>47.75</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2654,22 +2654,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02042361</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01350656</v>
+        <v>5.74e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>0.02</v>
+        <v>7.353e-05</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>47.96</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2678,22 +2678,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02006414</v>
+        <v>7.415e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01723183</v>
+        <v>4.492e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02</v>
+        <v>7.306e-05</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>48.84</t>
+          <t>13486.00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02017745</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01493843</v>
+        <v>6.734e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>0.02</v>
+        <v>7.398000000000001e-05</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>48.56</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02025977</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01264279</v>
+        <v>5.296e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02</v>
+        <v>7.357e-05</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>48.36</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2750,22 +2750,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02039619</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01354273</v>
+        <v>4.961e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02</v>
+        <v>7.245e-05</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2774,22 +2774,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.02046676</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01322002</v>
+        <v>7.415999999999999e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02</v>
+        <v>7.422e-05</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>47.86</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2798,22 +2798,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0201493</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01537157</v>
+        <v>6.447e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02</v>
+        <v>7.402999999999999e-05</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>48.63</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Resistencia-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;San Salvador de Jujuy-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2822,22 +2822,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02081362</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01701882</v>
+        <v>6.368e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>0.02</v>
+        <v>7.381999999999999e-05</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>47.05</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;La Plata-&gt;CABA-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2846,22 +2846,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.02058023</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01890536</v>
+        <v>6.078e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02</v>
+        <v>7.395e-05</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>47.59</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2870,22 +2870,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.02045043</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01225652</v>
+        <v>7.148e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>0.02</v>
+        <v>7.417e-05</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>47.90</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2894,22 +2894,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0200961</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01696258</v>
+        <v>6.34e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>0.02</v>
+        <v>7.392e-05</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>48.76</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2918,22 +2918,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.02043312</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01301512</v>
+        <v>5.501e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>0.02</v>
+        <v>7.357e-05</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>47.94</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2942,22 +2942,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.02034886</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0128589</v>
+        <v>4.961e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02</v>
+        <v>7.330000000000001e-05</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>48.14</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2966,22 +2966,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.02039507</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>0.01499244</v>
+        <v>6.255e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02</v>
+        <v>7.386e-05</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -2990,22 +2990,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02015719</v>
+        <v>7.422e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>0.01708992</v>
+        <v>7.422e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02</v>
+        <v>7.422e-05</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>48.61</t>
+          <t>13473.00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0203469</v>
+        <v>7.485e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01541333</v>
+        <v>6.887e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02</v>
+        <v>7.413e-05</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>48.15</t>
+          <t>13360.00</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3038,22 +3038,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.02065959</v>
+        <v>7.485e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>0.01279337</v>
+        <v>5.825e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>0.02</v>
+        <v>7.406000000000001e-05</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>47.40</t>
+          <t>13360.00</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3062,22 +3062,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.02007745</v>
+        <v>7.485e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01696691</v>
+        <v>6.524000000000001e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02</v>
+        <v>7.433e-05</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>48.81</t>
+          <t>13360.00</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0201982</v>
+        <v>7.485e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01712088</v>
+        <v>6.781e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>0.02</v>
+        <v>7.470999999999999e-05</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>48.51</t>
+          <t>13360.00</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3110,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.02017661</v>
+        <v>7.485e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>0.01710639</v>
+        <v>5.454e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>0.02</v>
+        <v>7.422e-05</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>48.56</t>
+          <t>13360.00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3134,22 +3134,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.02041817</v>
+        <v>7.485e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01228877</v>
+        <v>6.492e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>0.02</v>
+        <v>7.462e-05</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>47.98</t>
+          <t>13360.00</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;San Luis-&gt;Mendoza-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3158,22 +3158,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.02102813</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>0.01187325</v>
+        <v>5.894e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02</v>
+        <v>7.454e-05</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>46.56</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3182,22 +3182,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0204513</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0142041</v>
+        <v>7.485e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02</v>
+        <v>7.542000000000001e-05</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>47.90</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3206,22 +3206,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02048422</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01135504</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>47.82</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3230,22 +3230,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.020217</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0159475</v>
+        <v>6.169e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>0.02</v>
+        <v>7.567999999999999e-05</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>48.46</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02016008</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01684831</v>
+        <v>5.841e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02</v>
+        <v>7.585e-05</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>48.60</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3278,22 +3278,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02111182</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01143513</v>
+        <v>5.151e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02</v>
+        <v>7.529000000000001e-05</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>46.37</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3302,22 +3302,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.02102458</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>0.01304344</v>
+        <v>5.431e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02</v>
+        <v>7.569e-05</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>46.56</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3326,22 +3326,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0202419</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01618627</v>
+        <v>5.696e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02</v>
+        <v>7.543e-05</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>48.40</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3350,22 +3350,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.02011721</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0158792</v>
+        <v>6.674e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>0.02</v>
+        <v>7.617e-05</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>48.71</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3374,22 +3374,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.02018939</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>0.01402499</v>
+        <v>6.649e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>0.02</v>
+        <v>7.616e-05</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>48.53</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3398,22 +3398,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.02030638</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01314267</v>
+        <v>6.298e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02</v>
+        <v>7.597000000000001e-05</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>48.25</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3422,22 +3422,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.02029383</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>0.01481294</v>
+        <v>7.061e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02</v>
+        <v>7.624e-05</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>48.28</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Santa Rosa-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Paraná-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3446,22 +3446,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.02062427</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0124728</v>
+        <v>5.262e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>0.02</v>
+        <v>7.588e-05</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>47.49</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3470,22 +3470,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.02008472</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01921797</v>
+        <v>6.739e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>0.02</v>
+        <v>7.618000000000001e-05</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>48.79</t>
+          <t>13096.00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3494,22 +3494,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0201317</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0155922</v>
+        <v>6.528e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>0.02</v>
+        <v>7.595e-05</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>48.67</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3518,22 +3518,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.02014867</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C129" t="n">
-        <v>0.01476065</v>
+        <v>7.143e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02</v>
+        <v>7.633e-05</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>48.63</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3542,22 +3542,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.02005413</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0173475</v>
+        <v>7.541e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02</v>
+        <v>7.653e-05</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>48.87</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3566,22 +3566,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.02080835</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01275628</v>
+        <v>6.166e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>0.02</v>
+        <v>7.604e-05</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>47.06</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3590,22 +3590,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.020459</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01131835</v>
+        <v>7.651e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>0.02</v>
+        <v>7.655e-05</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>47.88</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3614,22 +3614,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.02074201</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C133" t="n">
-        <v>0.01241239</v>
+        <v>5.422e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>0.02</v>
+        <v>7.611e-05</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>47.21</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3638,22 +3638,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.02040248</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0152035</v>
+        <v>5.193e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>0.02</v>
+        <v>7.58e-05</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>48.01</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3662,22 +3662,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0202696</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C135" t="n">
-        <v>0.01430015</v>
+        <v>5.441e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02</v>
+        <v>7.588999999999999e-05</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>48.33</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.02000562</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0197245</v>
+        <v>7.48e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>0.02</v>
+        <v>7.652000000000001e-05</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>48.99</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3710,22 +3710,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.02076401</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C137" t="n">
-        <v>0.01123931</v>
+        <v>4.579e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>0.02</v>
+        <v>7.546e-05</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>47.16</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3734,22 +3734,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02026933</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0125784</v>
+        <v>5.051e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>0.02</v>
+        <v>7.571000000000001e-05</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>48.34</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3758,22 +3758,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.02013487</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>0.01638849</v>
+        <v>6.537000000000001e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>0.02</v>
+        <v>7.6e-05</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>48.67</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3782,22 +3782,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.02041648</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>0.01381347</v>
+        <v>7.18e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>0.02</v>
+        <v>7.638e-05</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>47.98</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.02065105</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>0.01178529</v>
+        <v>6.456000000000001e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>0.02</v>
+        <v>7.584000000000001e-05</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>47.42</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3830,22 +3830,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.02026492</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01288608</v>
+        <v>7.256e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>0.02</v>
+        <v>7.646e-05</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3854,22 +3854,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0202642</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01481984</v>
+        <v>6.794e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>0.02</v>
+        <v>7.638e-05</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3878,22 +3878,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.02065629</v>
+        <v>7.655e-05</v>
       </c>
       <c r="C144" t="n">
-        <v>0.01281853</v>
+        <v>7.655e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>0.02</v>
+        <v>7.655e-05</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>47.41</t>
+          <t>13063.00</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3902,22 +3902,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.02031565</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0114101</v>
+        <v>6.143999999999999e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>0.02</v>
+        <v>7.621e-05</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>48.22</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3926,22 +3926,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0200839</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C146" t="n">
-        <v>0.01737466</v>
+        <v>5.179e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>0.02</v>
+        <v>7.682999999999999e-05</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>48.79</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3950,22 +3950,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.02031368</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01396901</v>
+        <v>6.109e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.02</v>
+        <v>8.034000000000001e-05</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>48.23</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3974,22 +3974,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.02008136</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C148" t="n">
-        <v>0.01753892</v>
+        <v>6.549e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>0.02</v>
+        <v>8.033e-05</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>48.80</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;Santa Fe-&gt;Córdoba-&gt;La Rioja-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -3998,22 +3998,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.02036977</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01488327</v>
+        <v>4.761e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>0.02</v>
+        <v>7.989e-05</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>48.09</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4022,22 +4022,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.02059553</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C150" t="n">
-        <v>0.01386615</v>
+        <v>5.286e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.02</v>
+        <v>7.983e-05</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>47.55</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;San Luis-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;La Rioja-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4046,22 +4046,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02050925</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C151" t="n">
-        <v>0.014977</v>
+        <v>5.659e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>0.02</v>
+        <v>8.009e-05</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>47.76</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4070,22 +4070,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02064378</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C152" t="n">
-        <v>0.01072004</v>
+        <v>8.061e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>0.02</v>
+        <v>8.1e-05</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>47.44</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4094,22 +4094,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.02019835</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01659327</v>
+        <v>7.198999999999999e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>0.02</v>
+        <v>8.066e-05</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>48.51</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4118,22 +4118,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.02006506</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C154" t="n">
-        <v>0.01788321</v>
+        <v>5.447e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02</v>
+        <v>8.004e-05</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>48.84</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4142,22 +4142,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.02022788</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01520199</v>
+        <v>7.25e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>0.02</v>
+        <v>8.067999999999999e-05</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>48.44</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4166,22 +4166,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.02032123</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01233276</v>
+        <v>5.923e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>0.02</v>
+        <v>8.043e-05</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>48.21</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4190,22 +4190,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.02020185</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01245967</v>
+        <v>7.584000000000001e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.02</v>
+        <v>8.09e-05</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>48.50</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4214,22 +4214,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.02052883</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01465258</v>
+        <v>6.523e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>0.02</v>
+        <v>7.994e-05</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>47.71</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4238,22 +4238,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.02030597</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>0.010861</v>
+        <v>8.1e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>0.02</v>
+        <v>8.1e-05</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>48.25</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4262,22 +4262,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.02058189</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01147696</v>
+        <v>5.862e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>0.02</v>
+        <v>8.004999999999999e-05</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>47.59</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.02043012</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01189325</v>
+        <v>6.716e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>0.02</v>
+        <v>8.025999999999999e-05</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4310,22 +4310,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.02079323</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01137031</v>
+        <v>5.923e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>0.02</v>
+        <v>8.057e-05</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>47.09</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4334,22 +4334,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.02043725</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01135002</v>
+        <v>5.933e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>0.02</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>47.93</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4358,22 +4358,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.02056838</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C164" t="n">
-        <v>0.01316787</v>
+        <v>7.247e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>0.02</v>
+        <v>8.078e-05</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>47.62</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Juan-&gt;Mendoza-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4382,22 +4382,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.02033076</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C165" t="n">
-        <v>0.01124639</v>
+        <v>6.064e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>0.02</v>
+        <v>8.031e-05</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>48.19</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4406,22 +4406,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.02019753</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C166" t="n">
-        <v>0.01466601</v>
+        <v>7.14e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>0.02</v>
+        <v>8.080999999999999e-05</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>48.51</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4430,22 +4430,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.02047059</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0143944</v>
+        <v>5.505e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>0.02</v>
+        <v>8.017e-05</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>47.85</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4454,22 +4454,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.02025215</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0143741</v>
+        <v>5.826e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>0.02</v>
+        <v>8.055000000000001e-05</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>48.38</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4478,22 +4478,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.02048304</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C169" t="n">
-        <v>0.01166673</v>
+        <v>7.232e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>0.02</v>
+        <v>8.083e-05</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>47.82</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4502,22 +4502,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.02044196</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01091499</v>
+        <v>6.643e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>0.02</v>
+        <v>8.02e-05</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>47.92</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4526,22 +4526,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0200901</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>0.01686977</v>
+        <v>6.967e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>0.02</v>
+        <v>8.061e-05</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>48.78</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4550,22 +4550,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.02023336</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>0.01213464</v>
+        <v>5.395e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>0.02</v>
+        <v>7.983e-05</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>48.42</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4574,22 +4574,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.02023555</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01245154</v>
+        <v>4.761e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>0.02</v>
+        <v>7.904e-05</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>48.42</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4598,22 +4598,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0203739</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01553807</v>
+        <v>8.1e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>0.02</v>
+        <v>8.1e-05</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>48.08</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4622,22 +4622,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.02051563</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01244766</v>
+        <v>6.395e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>0.02</v>
+        <v>8.054e-05</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>47.74</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4646,22 +4646,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.02017478</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C176" t="n">
-        <v>0.01739361</v>
+        <v>4.901e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>0.02</v>
+        <v>8.007e-05</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>48.57</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4670,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.02094787</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C177" t="n">
-        <v>0.01126386</v>
+        <v>8.067999999999999e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>0.02</v>
+        <v>8.1e-05</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>46.74</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4694,22 +4694,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.02088026</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C178" t="n">
-        <v>0.01104287</v>
+        <v>6.751e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.02</v>
+        <v>8.049e-05</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>46.89</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4718,22 +4718,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0201258</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01574536</v>
+        <v>6.643e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>0.02</v>
+        <v>8.071e-05</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>48.69</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4742,22 +4742,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02046749</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0131986</v>
+        <v>5.358e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>0.02</v>
+        <v>7.975e-05</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>47.86</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4766,22 +4766,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02039881</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0147791</v>
+        <v>7.638e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02</v>
+        <v>8.087e-05</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>48.02</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Formosa-&gt;Posadas-&gt;Corrientes-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4790,22 +4790,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02027352</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01581536</v>
+        <v>4.879e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02</v>
+        <v>8.012e-05</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>48.33</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4814,22 +4814,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0210785</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C183" t="n">
-        <v>0.01114387</v>
+        <v>7.207000000000001e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>0.02</v>
+        <v>8.083e-05</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>46.44</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4838,22 +4838,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02059543</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0131122</v>
+        <v>7.166e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02</v>
+        <v>8.082e-05</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>47.55</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4862,22 +4862,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02036884</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0111242</v>
+        <v>7.511e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02</v>
+        <v>8.089000000000001e-05</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>48.09</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0201435</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C186" t="n">
-        <v>0.01647363</v>
+        <v>5.659e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>0.02</v>
+        <v>8.051e-05</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>48.64</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4910,22 +4910,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02064271</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C187" t="n">
-        <v>0.01186859</v>
+        <v>4.603e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>0.02</v>
+        <v>7.993e-05</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>47.44</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4934,22 +4934,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02058199</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C188" t="n">
-        <v>0.01415959</v>
+        <v>5.953e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>0.02</v>
+        <v>8.006e-05</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>47.59</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4958,22 +4958,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.02011386</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C189" t="n">
-        <v>0.01721827</v>
+        <v>6.828e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02</v>
+        <v>8.075e-05</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>48.72</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -4982,22 +4982,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.02031763</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C190" t="n">
-        <v>0.01282049</v>
+        <v>5.662e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>0.02</v>
+        <v>8.023e-05</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>48.22</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5006,22 +5006,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.02003523</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C191" t="n">
-        <v>0.01883155</v>
+        <v>6.578e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>0.02</v>
+        <v>8.064e-05</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>48.91</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02043953</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C192" t="n">
-        <v>0.01301296</v>
+        <v>6.575999999999999e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.02</v>
+        <v>8.049e-05</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>47.92</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5054,22 +5054,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0206066</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C193" t="n">
-        <v>0.01117723</v>
+        <v>4.628e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>0.02</v>
+        <v>7.969e-05</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>47.53</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5078,22 +5078,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02020459</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C194" t="n">
-        <v>0.01441084</v>
+        <v>6.892e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02</v>
+        <v>8.076000000000001e-05</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>48.49</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5102,22 +5102,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02039864</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C195" t="n">
-        <v>0.01074447</v>
+        <v>6.308e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>0.02</v>
+        <v>8.025e-05</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>48.02</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5126,22 +5126,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02085081</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01141833</v>
+        <v>4.603e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>0.02</v>
+        <v>8.01e-05</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>46.96</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5150,22 +5150,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02033951</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0123754</v>
+        <v>5.114e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02</v>
+        <v>8.001e-05</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>48.17</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5174,22 +5174,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.02024375</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0149535</v>
+        <v>6.549e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>0.02</v>
+        <v>7.989e-05</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>48.40</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5198,22 +5198,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.02029261</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C199" t="n">
-        <v>0.01217146</v>
+        <v>5.289e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>0.02</v>
+        <v>7.949e-05</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>48.28</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5222,22 +5222,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.02035216</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C200" t="n">
-        <v>0.01327389</v>
+        <v>7.655e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>0.02</v>
+        <v>8.092e-05</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>48.13</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5246,22 +5246,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.02053031</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C201" t="n">
-        <v>0.01134005</v>
+        <v>8.1e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>0.02</v>
+        <v>8.1e-05</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>47.71</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>
@@ -5270,22 +5270,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.02012516</v>
+        <v>8.1e-05</v>
       </c>
       <c r="C202" t="n">
-        <v>0.01386705</v>
+        <v>5.376e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>0.02</v>
+        <v>7.998e-05</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>48.69</t>
+          <t>12345.00</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>San Salvador de Jujuy-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Viedma-&gt;Rawson-&gt;Ushuaia-&gt;Río Gallegos-&gt;Neuquén-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;Santa Fe-&gt;Corrientes-&gt;Posadas-&gt;Formosa-&gt;Resistencia-&gt;Santiago del Estero-&gt;San Miguel de Tucumán</t>
+          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
         </is>
       </c>
     </row>

--- a/TP N3/Excels/AG_200Ciclos_Torneo_Elitismo.xlsx
+++ b/TP N3/Excels/AG_200Ciclos_Torneo_Elitismo.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.301e-05</v>
+        <v>4.647e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>3.213e-05</v>
+        <v>3.254e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>3.712e-05</v>
+        <v>3.731e-05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23249.00</t>
+          <t>21519.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Córdoba-&gt;Paraná-&gt;Viedma-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;La Rioja-&gt;San Salvador de Jujuy-&gt;Santa Rosa-&gt;San Luis-&gt;Santiago del Estero-&gt;Mendoza-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Corrientes-&gt;Neuquén-&gt;Resistencia-&gt;Rawson-&gt;San Juan-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;San Miguel de Tucumán</t>
+          <t>21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\0 &amp; CABA\16 &amp; Salta\6 &amp; Mendoza\5 &amp; La Rioja\9 &amp; Posadas\3 &amp; Formosa\10 &amp; Rawson\14 &amp; San Miguel de Tucumán\8 &amp; Paraná\17 &amp; San Juan\1 &amp; Córdoba\18 &amp; San Luis\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\4 &amp; La Plata\2 &amp; Corrientes\11 &amp; Resistencia\13 &amp; San Fernando del Valle de Catamarca\20 &amp; Santa Rosa\21 &amp; Santiago del Estero</t>
         </is>
       </c>
     </row>
@@ -494,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.764e-05</v>
+        <v>5.393e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>3.507e-05</v>
+        <v>3.372e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>4.261e-05</v>
+        <v>4.306e-05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20990.00</t>
+          <t>18544.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Neuquén-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Salta-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\0 &amp; CABA\9 &amp; Posadas\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\5 &amp; La Rioja\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\2 &amp; Corrientes\11 &amp; Resistencia\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -518,22 +518,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.194e-05</v>
+        <v>5.566e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>3.864e-05</v>
+        <v>3.551e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>4.628e-05</v>
+        <v>5.292e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19254.00</t>
+          <t>17966.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\0 &amp; CABA\9 &amp; Posadas\11 &amp; Resistencia\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\5 &amp; La Rioja\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\2 &amp; Corrientes\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.194e-05</v>
+        <v>5.566e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>4.764e-05</v>
+        <v>3.949e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>4.929e-05</v>
+        <v>5.412e-05</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19254.00</t>
+          <t>17966.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\0 &amp; CABA\9 &amp; Posadas\11 &amp; Resistencia\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\5 &amp; La Rioja\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\2 &amp; Corrientes\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -566,22 +566,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.194e-05</v>
+        <v>5.569e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>4.514e-05</v>
+        <v>5.327e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>5.173e-05</v>
+        <v>5.558e-05</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19254.00</t>
+          <t>17957.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\13 &amp; San Fernando del Valle de Catamarca\15 &amp; San Salvador de Jujuy\0 &amp; CABA\9 &amp; Posadas\11 &amp; Resistencia\19 &amp; Santa Fe\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\5 &amp; La Rioja\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\2 &amp; Corrientes\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -590,22 +590,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.194e-05</v>
+        <v>5.662e-05</v>
       </c>
       <c r="C7" t="n">
         <v>5.064e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>5.189e-05</v>
+        <v>5.555e-05</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19254.00</t>
+          <t>17662.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\5 &amp; La Rioja\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\2 &amp; Corrientes\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -614,22 +614,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.194e-05</v>
+        <v>5.662e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>5.074e-05</v>
+        <v>4.35e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>5.191e-05</v>
+        <v>5.567e-05</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>19254.00</t>
+          <t>17662.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\5 &amp; La Rioja\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\2 &amp; Corrientes\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.194e-05</v>
+        <v>5.662e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>3.77e-05</v>
+        <v>4.379e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>5.165e-05</v>
+        <v>5.599e-05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19254.00</t>
+          <t>17662.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Córdoba-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\5 &amp; La Rioja\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\2 &amp; Corrientes\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -662,22 +662,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.282e-05</v>
+        <v>5.662e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>3.738e-05</v>
+        <v>5.341e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>5.135e-05</v>
+        <v>5.655e-05</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18932.00</t>
+          <t>17662.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Viedma-&gt;San Juan-&gt;Neuquén-&gt;Córdoba-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\5 &amp; La Rioja\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\2 &amp; Corrientes\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.455e-05</v>
+        <v>5.662e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>4.801e-05</v>
+        <v>4.07e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>5.237e-05</v>
+        <v>5.604e-05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18331.00</t>
+          <t>17662.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;Neuquén-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\5 &amp; La Rioja\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\2 &amp; Corrientes\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.566e-05</v>
+        <v>5.662e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>5.237e-05</v>
+        <v>5.587e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>5.369e-05</v>
+        <v>5.66e-05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17966.00</t>
+          <t>17662.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\5 &amp; La Rioja\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\2 &amp; Corrientes\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -734,22 +734,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.566e-05</v>
+        <v>5.811e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>5.126e-05</v>
+        <v>5.563e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>5.545e-05</v>
+        <v>5.663e-05</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17966.00</t>
+          <t>17209.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;San Miguel de Tucumán-&gt;Santa Rosa-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -758,22 +758,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.814e-05</v>
+        <v>5.811e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>4.314e-05</v>
+        <v>5.017e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>5.515e-05</v>
+        <v>5.686e-05</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17199.00</t>
+          <t>17209.00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -782,22 +782,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.814e-05</v>
+        <v>5.811e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>5.564e-05</v>
+        <v>5.048e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>5.66e-05</v>
+        <v>5.796e-05</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17199.00</t>
+          <t>17209.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -806,22 +806,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.814e-05</v>
+        <v>5.811e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.814e-05</v>
+        <v>5.427e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>5.814e-05</v>
+        <v>5.803e-05</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17199.00</t>
+          <t>17209.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\17 &amp; San Juan\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\20 &amp; Santa Rosa\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -830,22 +830,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.814e-05</v>
+        <v>5.904e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>5.814e-05</v>
+        <v>5.302e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>5.814e-05</v>
+        <v>5.795e-05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17199.00</t>
+          <t>16939.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Juan-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -854,22 +854,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.02e-05</v>
+        <v>5.904e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>5.277e-05</v>
+        <v>5.641e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>5.801e-05</v>
+        <v>5.839e-05</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>16610.00</t>
+          <t>16939.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Viedma-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Mendoza</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -878,22 +878,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.219e-05</v>
+        <v>5.904e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>5.695e-05</v>
+        <v>5.413e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>5.881e-05</v>
+        <v>5.882e-05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>16080.00</t>
+          <t>16939.00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -902,22 +902,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.219e-05</v>
+        <v>5.904e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>4.282e-05</v>
+        <v>5.603e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>6.036e-05</v>
+        <v>5.898e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16080.00</t>
+          <t>16939.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -926,22 +926,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.219e-05</v>
+        <v>5.904e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>4.2e-05</v>
+        <v>4.188e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>6.179e-05</v>
+        <v>5.841e-05</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>16080.00</t>
+          <t>16939.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -950,22 +950,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.219e-05</v>
+        <v>5.904e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>5.43e-05</v>
+        <v>5.629e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>6.175e-05</v>
+        <v>5.895e-05</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16080.00</t>
+          <t>16939.00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -974,22 +974,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.219e-05</v>
+        <v>5.904e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>4.073e-05</v>
+        <v>5.27e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>6.161e-05</v>
+        <v>5.891e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>16080.00</t>
+          <t>16939.00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Miguel de Tucumán-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -998,22 +998,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.334e-05</v>
+        <v>5.904e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>5.488e-05</v>
+        <v>4.639e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>6.206999999999999e-05</v>
+        <v>5.874e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>16939.00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\9 &amp; Posadas\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1022,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.334e-05</v>
+        <v>6.112e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>4.561e-05</v>
+        <v>4.546e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>6.203e-05</v>
+        <v>5.867e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>16362.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.334e-05</v>
+        <v>6.112e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>5.044e-05</v>
+        <v>5.275e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>6.294e-05</v>
+        <v>5.961e-05</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>16362.00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\15 &amp; San Salvador de Jujuy\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\2 &amp; Corrientes\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.334e-05</v>
+        <v>6.357e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>5.482e-05</v>
+        <v>5.731e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>6.291000000000001e-05</v>
+        <v>6.109e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>15731.00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\15 &amp; San Salvador de Jujuy\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1094,22 +1094,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.334e-05</v>
+        <v>6.357e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>5.493e-05</v>
+        <v>5.743e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>6.312000000000001e-05</v>
+        <v>6.217e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>15731.00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\15 &amp; San Salvador de Jujuy\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1118,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.334e-05</v>
+        <v>6.357e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>4.761e-05</v>
+        <v>5.205e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>6.303e-05</v>
+        <v>6.32e-05</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>15731.00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\15 &amp; San Salvador de Jujuy\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1142,22 +1142,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.334e-05</v>
+        <v>6.357e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>5.876e-05</v>
+        <v>5.661e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>6.325000000000001e-05</v>
+        <v>6.324e-05</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>15731.00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\15 &amp; San Salvador de Jujuy\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\17 &amp; San Juan\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.334e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>5.216e-05</v>
+        <v>6.357e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>6.312000000000001e-05</v>
+        <v>6.363e-05</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1190,22 +1190,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.334e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>5.308e-05</v>
+        <v>5.455e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>6.314e-05</v>
+        <v>6.484e-05</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1214,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.334e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>5.297e-05</v>
+        <v>5.716e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>6.303e-05</v>
+        <v>6.628e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1238,22 +1238,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.334e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>5.186e-05</v>
+        <v>6.226e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>6.297e-05</v>
+        <v>6.65e-05</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1262,22 +1262,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.334e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>6.316e-05</v>
+        <v>5.147e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>6.334e-05</v>
+        <v>6.614e-05</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15787.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.416e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>4.558e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>6.289e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15587.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Santa Fe-&gt;Paraná-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Córdoba-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1310,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.418999999999999e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>4.246e-05</v>
+        <v>5.973e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>6.259e-05</v>
+        <v>6.638e-05</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15579.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Córdoba-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1334,22 +1334,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.418999999999999e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>6.416e-05</v>
+        <v>5.344e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>6.417e-05</v>
+        <v>6.626000000000001e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15579.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Córdoba-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1358,22 +1358,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.418999999999999e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>5.678e-05</v>
+        <v>5.923e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>6.384999999999999e-05</v>
+        <v>6.64e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15579.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Córdoba-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Mendoza-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1382,22 +1382,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.628e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>5.382e-05</v>
+        <v>5.991e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>6.402e-05</v>
+        <v>6.646e-05</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15088.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.628e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>4.863e-05</v>
+        <v>5.281e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>6.439999999999999e-05</v>
+        <v>6.559e-05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15088.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1430,22 +1430,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.628e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>5.12e-05</v>
+        <v>5.887e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>6.598e-05</v>
+        <v>6.642e-05</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15088.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1454,22 +1454,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.628e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>6.046e-05</v>
+        <v>5.257e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>6.609e-05</v>
+        <v>6.625e-05</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15088.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1478,22 +1478,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.679e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>6.03e-05</v>
+        <v>4.84e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>6.607e-05</v>
+        <v>6.616e-05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>14972.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1502,22 +1502,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.679e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>6.536e-05</v>
+        <v>5.887e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>6.643999999999999e-05</v>
+        <v>6.641e-05</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14972.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.679e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>6.421e-05</v>
+        <v>5.779e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>6.674e-05</v>
+        <v>6.642e-05</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14972.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Resistencia-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Posadas-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1550,22 +1550,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.802e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>6.491e-05</v>
+        <v>6.259e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>6.679e-05</v>
+        <v>6.651e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14702.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;Santiago del Estero-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;San Luis-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1574,22 +1574,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.882e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>5.349e-05</v>
+        <v>6.259e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>6.703e-05</v>
+        <v>6.645e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14530.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1598,22 +1598,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.882e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>4.989e-05</v>
+        <v>6.239e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>6.830000000000001e-05</v>
+        <v>6.648e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14530.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1622,22 +1622,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.882e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>4.819e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>6.806e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14530.00</t>
+          <t>15017.00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\5 &amp; La Rioja\6 &amp; Mendoza\18 &amp; San Luis\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1646,22 +1646,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.882e-05</v>
+        <v>7.059999999999999e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>4.486e-05</v>
+        <v>4.83e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>6.834e-05</v>
+        <v>6.567e-05</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14530.00</t>
+          <t>14165.00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\18 &amp; San Luis\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1670,22 +1670,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.882e-05</v>
+        <v>7.059999999999999e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>5.679e-05</v>
+        <v>6.318e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>6.831e-05</v>
+        <v>6.821e-05</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14530.00</t>
+          <t>14165.00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\20 &amp; Santa Rosa\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\18 &amp; San Luis\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1694,22 +1694,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.882e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>6.051e-05</v>
+        <v>5.217e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>6.859000000000001e-05</v>
+        <v>7.014e-05</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14530.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1718,22 +1718,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.882e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>5.921e-05</v>
+        <v>6.465e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>6.846000000000001e-05</v>
+        <v>7.153e-05</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14530.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1742,22 +1742,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.882e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>6.415e-05</v>
+        <v>6.203e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>6.873e-05</v>
+        <v>7.271e-05</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14530.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1766,22 +1766,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.882e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>5.864e-05</v>
+        <v>6.507e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>6.824e-05</v>
+        <v>7.279999999999999e-05</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14530.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1790,22 +1790,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.882e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>6.062e-05</v>
+        <v>4.532e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>6.851000000000001e-05</v>
+        <v>7.213e-05</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14530.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Paraná-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;La Plata-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1814,22 +1814,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.126000000000001e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>4.708e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>6.81e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>14034.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1838,22 +1838,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.126000000000001e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>5.939e-05</v>
+        <v>5.597e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>6.991e-05</v>
+        <v>7.245999999999999e-05</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14034.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1862,22 +1862,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.126000000000001e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>6.049e-05</v>
+        <v>6.507999999999999e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>7.1e-05</v>
+        <v>7.29e-05</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14034.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.126000000000001e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>4.972e-05</v>
+        <v>7.132e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>7.033e-05</v>
+        <v>7.307e-05</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>14034.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1910,22 +1910,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.126000000000001e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>5.169e-05</v>
+        <v>5.597e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>7.059999999999999e-05</v>
+        <v>7.257e-05</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>14034.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1934,22 +1934,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.126000000000001e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>6.046e-05</v>
+        <v>5.673e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>7.104e-05</v>
+        <v>7.266999999999999e-05</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14034.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1958,22 +1958,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.126000000000001e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>5.39e-05</v>
+        <v>4.551e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>7.07e-05</v>
+        <v>7.208e-05</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14034.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;La Rioja-&gt;San Juan-&gt;Mendoza-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.399e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>7.126000000000001e-05</v>
+        <v>6.839e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>7.131000000000001e-05</v>
+        <v>7.296000000000001e-05</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>13515.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2006,22 +2006,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.399e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>5.427e-05</v>
+        <v>6.184e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>7.156999999999999e-05</v>
+        <v>7.265e-05</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13515.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2030,22 +2030,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.399e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>7.164999999999999e-05</v>
+        <v>5.316e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>7.394e-05</v>
+        <v>7.257e-05</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>13515.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2054,22 +2054,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.399e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>5.844e-05</v>
+        <v>6.582e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>7.368e-05</v>
+        <v>7.296000000000001e-05</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>13515.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>La Plata-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;CABA-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2078,22 +2078,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.415e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>7.399e-05</v>
+        <v>6.187e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>7.4e-05</v>
+        <v>7.273e-05</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2102,22 +2102,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.415e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>5.378e-05</v>
+        <v>7.284e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>7.365e-05</v>
+        <v>7.31e-05</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2126,22 +2126,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.415e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>6.365e-05</v>
+        <v>5.316e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>7.368999999999999e-05</v>
+        <v>7.24e-05</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13678.00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2150,22 +2150,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.415e-05</v>
+        <v>7.34e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>5.082e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>7.34e-05</v>
+        <v>7.312e-05</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13624.00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\0 &amp; CABA\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\1 &amp; Córdoba\8 &amp; Paraná\4 &amp; La Plata\17 &amp; San Juan\18 &amp; San Luis\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2174,22 +2174,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.415e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>7.242e-05</v>
+        <v>5.263e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>7.412e-05</v>
+        <v>7.245999999999999e-05</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2198,22 +2198,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.415e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>6.844e-05</v>
+        <v>4.742e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>7.404e-05</v>
+        <v>7.232e-05</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2222,22 +2222,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.415e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>6.429e-05</v>
+        <v>6.227e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>7.385000000000001e-05</v>
+        <v>7.326999999999999e-05</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2246,22 +2246,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.415e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>6.106e-05</v>
+        <v>7.201e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>7.389e-05</v>
+        <v>7.37e-05</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2270,22 +2270,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.415e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>6.245e-05</v>
+        <v>6.166e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>7.376e-05</v>
+        <v>7.313999999999999e-05</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2294,22 +2294,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.415e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>7.31e-05</v>
+        <v>6.985e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>7.413e-05</v>
+        <v>7.365e-05</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2318,22 +2318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.415e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>7.148999999999999e-05</v>
+        <v>5.442e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>7.41e-05</v>
+        <v>7.312e-05</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2342,22 +2342,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.415e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>4.921e-05</v>
+        <v>6.567999999999999e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>7.354e-05</v>
+        <v>7.346e-05</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2366,22 +2366,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.415e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>6.515e-05</v>
+        <v>6.412e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>7.396e-05</v>
+        <v>7.321e-05</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\18 &amp; San Luis\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\6 &amp; Mendoza\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2390,22 +2390,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>4.882e-05</v>
+        <v>4.556e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>7.247e-05</v>
+        <v>7.216e-05</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2414,22 +2414,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>6.476e-05</v>
+        <v>4.569e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>7.396e-05</v>
+        <v>7.309000000000001e-05</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>6.256e-05</v>
+        <v>6.082e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>7.385000000000001e-05</v>
+        <v>7.378e-05</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2462,22 +2462,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>5.345e-05</v>
+        <v>5.616e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>7.321e-05</v>
+        <v>7.316e-05</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>6.041e-05</v>
+        <v>5.084e-05</v>
       </c>
       <c r="D86" t="n">
         <v>7.347e-05</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2510,22 +2510,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>7.279e-05</v>
+        <v>4.734e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>7.412e-05</v>
+        <v>7.355999999999999e-05</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2534,22 +2534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>5.989e-05</v>
+        <v>6.728000000000001e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>7.366e-05</v>
+        <v>7.404e-05</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2558,22 +2558,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>5.85e-05</v>
+        <v>6.689000000000001e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>7.373e-05</v>
+        <v>7.402999999999999e-05</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2582,22 +2582,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>6.437e-05</v>
+        <v>4.567e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>7.374e-05</v>
+        <v>7.215000000000001e-05</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2606,22 +2606,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>5.082e-05</v>
+        <v>4.719e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>7.363e-05</v>
+        <v>7.36e-05</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2630,22 +2630,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C92" t="n">
-        <v>4.582e-05</v>
+        <v>4.985e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>7.326999999999999e-05</v>
+        <v>7.325000000000001e-05</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2654,22 +2654,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.415e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>5.74e-05</v>
+        <v>4.919e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>7.353e-05</v>
+        <v>7.316e-05</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13481.00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2678,22 +2678,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.415e-05</v>
+        <v>7.447e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>4.492e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>7.306e-05</v>
+        <v>7.418e-05</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>13486.00</t>
+          <t>13428.00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Formosa-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Paraná-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\21 &amp; Santiago del Estero\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\18 &amp; San Luis\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\17 &amp; San Juan\5 &amp; La Rioja\15 &amp; San Salvador de Jujuy\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C95" t="n">
-        <v>6.734e-05</v>
+        <v>6.101e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>7.398000000000001e-05</v>
+        <v>7.38e-05</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C96" t="n">
-        <v>5.296e-05</v>
+        <v>4.604e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>7.357e-05</v>
+        <v>7.385000000000001e-05</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2750,22 +2750,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>4.961e-05</v>
+        <v>6.655e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>7.245e-05</v>
+        <v>7.553e-05</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2774,22 +2774,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>7.415999999999999e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2798,22 +2798,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>6.447e-05</v>
+        <v>5.951e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>7.402999999999999e-05</v>
+        <v>7.554999999999999e-05</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2822,22 +2822,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>6.368e-05</v>
+        <v>5.504e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>7.381999999999999e-05</v>
+        <v>7.494e-05</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2846,22 +2846,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>6.078e-05</v>
+        <v>5.964e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>7.395e-05</v>
+        <v>7.521000000000001e-05</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2870,22 +2870,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>7.148e-05</v>
+        <v>5.619e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>7.417e-05</v>
+        <v>7.546999999999999e-05</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2894,22 +2894,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>6.34e-05</v>
+        <v>5.506e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>7.392e-05</v>
+        <v>7.527e-05</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2918,22 +2918,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>5.501e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>7.357e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2942,22 +2942,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>4.961e-05</v>
+        <v>5.312e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>7.330000000000001e-05</v>
+        <v>7.542000000000001e-05</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2966,22 +2966,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>6.255e-05</v>
+        <v>6.550000000000001e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>7.386e-05</v>
+        <v>7.557e-05</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -2990,22 +2990,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.422e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>7.422e-05</v>
+        <v>4.637e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>7.422e-05</v>
+        <v>7.481e-05</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>13473.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;La Rioja-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Córdoba-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7.485e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>6.887e-05</v>
+        <v>6.656e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>7.413e-05</v>
+        <v>7.546999999999999e-05</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>13360.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3038,22 +3038,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.485e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>5.825e-05</v>
+        <v>4.637e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>7.406000000000001e-05</v>
+        <v>7.528e-05</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>13360.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3062,22 +3062,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.485e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>6.524000000000001e-05</v>
+        <v>6.391e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>7.433e-05</v>
+        <v>7.541e-05</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>13360.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7.485e-05</v>
+        <v>7.587e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>6.781e-05</v>
+        <v>6.867e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>7.470999999999999e-05</v>
+        <v>7.57e-05</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>13360.00</t>
+          <t>13180.00</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\6 &amp; Mendoza\17 &amp; San Juan\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3110,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7.485e-05</v>
+        <v>7.62e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>5.454e-05</v>
+        <v>6.826e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>7.422e-05</v>
+        <v>7.538999999999999e-05</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>13360.00</t>
+          <t>13123.00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3134,22 +3134,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7.485e-05</v>
+        <v>7.62e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>6.492e-05</v>
+        <v>6.473999999999999e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>7.462e-05</v>
+        <v>7.531e-05</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>13360.00</t>
+          <t>13123.00</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>CABA-&gt;Santa Fe-&gt;Posadas-&gt;Paraná-&gt;La Plata-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3158,22 +3158,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.62e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>5.894e-05</v>
+        <v>4.815e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>7.454e-05</v>
+        <v>7.483e-05</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>13123.00</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\1 &amp; Córdoba\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\8 &amp; Paraná\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3182,22 +3182,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>7.485e-05</v>
+        <v>6.675e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>7.542000000000001e-05</v>
+        <v>7.601999999999999e-05</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3206,22 +3206,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>4.712e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.451e-05</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3230,22 +3230,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>6.169e-05</v>
+        <v>6.718e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>7.567999999999999e-05</v>
+        <v>7.669999999999999e-05</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>5.841e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>7.585e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3278,22 +3278,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>5.151e-05</v>
+        <v>7.506e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>7.529000000000001e-05</v>
+        <v>7.69e-05</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3302,22 +3302,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>5.431e-05</v>
+        <v>4.757e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>7.569e-05</v>
+        <v>7.605000000000001e-05</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3326,22 +3326,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>5.696e-05</v>
+        <v>5.596e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>7.543e-05</v>
+        <v>7.604e-05</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3350,22 +3350,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>6.674e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>7.617e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3374,22 +3374,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>6.649e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>7.616e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3398,22 +3398,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>6.298e-05</v>
+        <v>6.910999999999999e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>7.597000000000001e-05</v>
+        <v>7.674e-05</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3422,22 +3422,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>7.061e-05</v>
+        <v>6.135e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>7.624e-05</v>
+        <v>7.661999999999999e-05</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3446,22 +3446,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>5.262e-05</v>
+        <v>6.346000000000001e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>7.588e-05</v>
+        <v>7.667e-05</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3470,22 +3470,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7.635999999999999e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>6.739e-05</v>
+        <v>7.374e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>7.618000000000001e-05</v>
+        <v>7.687e-05</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>13096.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>CABA-&gt;La Plata-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3494,22 +3494,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7.655e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>6.528e-05</v>
+        <v>6.357e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>7.595e-05</v>
+        <v>7.582e-05</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3518,22 +3518,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7.655e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C129" t="n">
-        <v>7.143e-05</v>
+        <v>5.238e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>7.633e-05</v>
+        <v>7.612e-05</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3542,22 +3542,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7.655e-05</v>
+        <v>7.693e-05</v>
       </c>
       <c r="C130" t="n">
-        <v>7.541e-05</v>
+        <v>6.497e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>7.653e-05</v>
+        <v>7.639000000000001e-05</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12998.00</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\0 &amp; CABA\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3566,22 +3566,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7.655e-05</v>
+        <v>7.752e-05</v>
       </c>
       <c r="C131" t="n">
-        <v>6.166e-05</v>
+        <v>5.364e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>7.604e-05</v>
+        <v>7.635999999999999e-05</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12900.00</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3590,22 +3590,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7.655e-05</v>
+        <v>7.752e-05</v>
       </c>
       <c r="C132" t="n">
-        <v>7.651e-05</v>
+        <v>6.64e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>7.655e-05</v>
+        <v>7.669999999999999e-05</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12900.00</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3614,22 +3614,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7.655e-05</v>
+        <v>7.752e-05</v>
       </c>
       <c r="C133" t="n">
-        <v>5.422e-05</v>
+        <v>5.143e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>7.611e-05</v>
+        <v>7.667e-05</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12900.00</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\4 &amp; La Plata\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\21 &amp; Santiago del Estero\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3638,22 +3638,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7.655e-05</v>
+        <v>7.878e-05</v>
       </c>
       <c r="C134" t="n">
-        <v>5.193e-05</v>
+        <v>5.464e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>7.58e-05</v>
+        <v>7.667e-05</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12694.00</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3662,22 +3662,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7.655e-05</v>
+        <v>7.878e-05</v>
       </c>
       <c r="C135" t="n">
-        <v>5.441e-05</v>
+        <v>6.282e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>7.588999999999999e-05</v>
+        <v>7.778e-05</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12694.00</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7.655e-05</v>
+        <v>7.878e-05</v>
       </c>
       <c r="C136" t="n">
-        <v>7.48e-05</v>
+        <v>7.878e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>7.652000000000001e-05</v>
+        <v>7.878e-05</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12694.00</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3710,22 +3710,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7.655e-05</v>
+        <v>7.878e-05</v>
       </c>
       <c r="C137" t="n">
-        <v>4.579e-05</v>
+        <v>6.29e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>7.546e-05</v>
+        <v>7.807e-05</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12694.00</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\16 &amp; Salta\15 &amp; San Salvador de Jujuy\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3734,22 +3734,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7.655e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C138" t="n">
-        <v>5.051e-05</v>
+        <v>4.758e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>7.571000000000001e-05</v>
+        <v>7.771e-05</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3758,22 +3758,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7.655e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>6.537000000000001e-05</v>
+        <v>6.462e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>7.6e-05</v>
+        <v>7.844e-05</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3782,22 +3782,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7.655e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>7.18e-05</v>
+        <v>6.499e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>7.638e-05</v>
+        <v>7.836e-05</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7.655e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>6.456000000000001e-05</v>
+        <v>6.616e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>7.584000000000001e-05</v>
+        <v>7.838000000000001e-05</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3830,22 +3830,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7.655e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>7.256e-05</v>
+        <v>4.729e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>7.646e-05</v>
+        <v>7.794e-05</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3854,22 +3854,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7.655e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>6.794e-05</v>
+        <v>6.556e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>7.638e-05</v>
+        <v>7.830000000000001e-05</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3878,22 +3878,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7.655e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C144" t="n">
-        <v>7.655e-05</v>
+        <v>5.722e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>7.655e-05</v>
+        <v>7.789e-05</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>13063.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;La Rioja-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3902,22 +3902,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.1e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C145" t="n">
-        <v>6.143999999999999e-05</v>
+        <v>5.461e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>7.621e-05</v>
+        <v>7.825e-05</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3926,22 +3926,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.1e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C146" t="n">
-        <v>5.179e-05</v>
+        <v>7.860999999999999e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>7.682999999999999e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3950,22 +3950,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.1e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C147" t="n">
-        <v>6.109e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>8.034000000000001e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3974,22 +3974,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.1e-05</v>
+        <v>7.879e-05</v>
       </c>
       <c r="C148" t="n">
-        <v>6.549e-05</v>
+        <v>7.137e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>8.033e-05</v>
+        <v>7.864000000000001e-05</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12692.00</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\19 &amp; Santa Fe\8 &amp; Paraná\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -3998,22 +3998,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C149" t="n">
-        <v>4.761e-05</v>
+        <v>5.832e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>7.989e-05</v>
+        <v>7.832e-05</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4022,22 +4022,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C150" t="n">
-        <v>5.286e-05</v>
+        <v>7.868e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>7.983e-05</v>
+        <v>7.883e-05</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4046,22 +4046,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C151" t="n">
-        <v>5.659e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>8.009e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4070,22 +4070,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C152" t="n">
-        <v>8.061e-05</v>
+        <v>6.770000000000001e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>8.1e-05</v>
+        <v>7.867e-05</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4094,22 +4094,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C153" t="n">
-        <v>7.198999999999999e-05</v>
+        <v>6.197e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>8.066e-05</v>
+        <v>7.824e-05</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4118,22 +4118,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C154" t="n">
-        <v>5.447e-05</v>
+        <v>6.197e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>8.004e-05</v>
+        <v>7.788000000000001e-05</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4142,22 +4142,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C155" t="n">
-        <v>7.25e-05</v>
+        <v>7.467e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>8.067999999999999e-05</v>
+        <v>7.881e-05</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4166,22 +4166,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C156" t="n">
-        <v>5.923e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>8.043e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4190,22 +4190,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C157" t="n">
-        <v>7.584000000000001e-05</v>
+        <v>7.864000000000001e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>8.09e-05</v>
+        <v>7.889e-05</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4214,22 +4214,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C158" t="n">
-        <v>6.523e-05</v>
+        <v>6.473e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>7.994e-05</v>
+        <v>7.803e-05</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4238,22 +4238,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>8.1e-05</v>
+        <v>5.537e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>8.1e-05</v>
+        <v>7.805999999999999e-05</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4262,22 +4262,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>5.862e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>8.004999999999999e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C161" t="n">
-        <v>6.716e-05</v>
+        <v>6.197e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>8.025999999999999e-05</v>
+        <v>7.855999999999999e-05</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4310,22 +4310,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C162" t="n">
-        <v>5.923e-05</v>
+        <v>6.089e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>8.057e-05</v>
+        <v>7.854e-05</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4334,22 +4334,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C163" t="n">
-        <v>5.933e-05</v>
+        <v>5.521e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>7.765e-05</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4358,22 +4358,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C164" t="n">
-        <v>7.247e-05</v>
+        <v>6.302e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>8.078e-05</v>
+        <v>7.836e-05</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4382,22 +4382,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C165" t="n">
-        <v>6.064e-05</v>
+        <v>6.628e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>8.031e-05</v>
+        <v>7.864000000000001e-05</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4406,22 +4406,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C166" t="n">
-        <v>7.14e-05</v>
+        <v>5.107e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>8.080999999999999e-05</v>
+        <v>7.815e-05</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4430,22 +4430,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C167" t="n">
-        <v>5.505e-05</v>
+        <v>6.884e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>8.017e-05</v>
+        <v>7.853e-05</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4454,22 +4454,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C168" t="n">
-        <v>5.826e-05</v>
+        <v>5.656e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>8.055000000000001e-05</v>
+        <v>7.809000000000001e-05</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4478,22 +4478,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C169" t="n">
-        <v>7.232e-05</v>
+        <v>6.473e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>8.083e-05</v>
+        <v>7.859e-05</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4502,22 +4502,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>6.643e-05</v>
+        <v>6.083e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>8.02e-05</v>
+        <v>7.853e-05</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4526,22 +4526,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>6.967e-05</v>
+        <v>5.296e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>8.061e-05</v>
+        <v>7.818e-05</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4550,22 +4550,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>5.395e-05</v>
+        <v>7.245999999999999e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>7.983e-05</v>
+        <v>7.876e-05</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4574,22 +4574,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>4.761e-05</v>
+        <v>6.758999999999999e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>7.904e-05</v>
+        <v>7.867e-05</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4598,22 +4598,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C174" t="n">
-        <v>8.1e-05</v>
+        <v>6.427000000000001e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>8.1e-05</v>
+        <v>7.85e-05</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4622,22 +4622,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C175" t="n">
-        <v>6.395e-05</v>
+        <v>5.392e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>8.054e-05</v>
+        <v>7.839999999999999e-05</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4646,22 +4646,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>8.1e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="C176" t="n">
-        <v>4.901e-05</v>
+        <v>5.259e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>8.007e-05</v>
+        <v>7.826e-05</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12675.00</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\1 &amp; Córdoba\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4670,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>8.1e-05</v>
+        <v>7.962999999999999e-05</v>
       </c>
       <c r="C177" t="n">
-        <v>8.067999999999999e-05</v>
+        <v>6.776e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>8.1e-05</v>
+        <v>7.868999999999999e-05</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12558.00</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4694,22 +4694,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>8.1e-05</v>
+        <v>7.962999999999999e-05</v>
       </c>
       <c r="C178" t="n">
-        <v>6.751e-05</v>
+        <v>7.889999999999999e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>8.049e-05</v>
+        <v>7.915e-05</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12558.00</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\22 &amp; Ushuaia\12 &amp; Río Gallegos\7 &amp; Neuquén\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4718,22 +4718,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>8.1e-05</v>
+        <v>8.203999999999999e-05</v>
       </c>
       <c r="C179" t="n">
-        <v>6.643e-05</v>
+        <v>6.463e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>8.071e-05</v>
+        <v>7.933e-05</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12189.00</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4742,22 +4742,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>8.1e-05</v>
+        <v>8.203999999999999e-05</v>
       </c>
       <c r="C180" t="n">
-        <v>5.358e-05</v>
+        <v>7.962999999999999e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>7.975e-05</v>
+        <v>8.084000000000001e-05</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12189.00</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4766,22 +4766,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>8.1e-05</v>
+        <v>8.203999999999999e-05</v>
       </c>
       <c r="C181" t="n">
-        <v>7.638e-05</v>
+        <v>6.274e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>8.087e-05</v>
+        <v>8.166e-05</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12189.00</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4790,22 +4790,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>8.1e-05</v>
+        <v>8.203999999999999e-05</v>
       </c>
       <c r="C182" t="n">
-        <v>4.879e-05</v>
+        <v>7.642e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>8.012e-05</v>
+        <v>8.189e-05</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12189.00</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4814,22 +4814,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>8.1e-05</v>
+        <v>8.203999999999999e-05</v>
       </c>
       <c r="C183" t="n">
-        <v>7.207000000000001e-05</v>
+        <v>6.64e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>8.083e-05</v>
+        <v>8.161999999999999e-05</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12189.00</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4838,22 +4838,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>8.1e-05</v>
+        <v>8.203999999999999e-05</v>
       </c>
       <c r="C184" t="n">
-        <v>7.166e-05</v>
+        <v>7.658e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>8.082e-05</v>
+        <v>8.193e-05</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12189.00</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4862,22 +4862,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>8.1e-05</v>
+        <v>8.203999999999999e-05</v>
       </c>
       <c r="C185" t="n">
-        <v>7.511e-05</v>
+        <v>6.588e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>8.089000000000001e-05</v>
+        <v>8.161e-05</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12189.00</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>8.1e-05</v>
+        <v>8.203999999999999e-05</v>
       </c>
       <c r="C186" t="n">
-        <v>5.659e-05</v>
+        <v>6.849e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>8.051e-05</v>
+        <v>8.138e-05</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>12189.00</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\23 &amp; Viedma\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\18 &amp; San Luis\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4910,22 +4910,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C187" t="n">
-        <v>4.603e-05</v>
+        <v>6.909e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>7.993e-05</v>
+        <v>8.186000000000001e-05</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4934,22 +4934,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C188" t="n">
-        <v>5.953e-05</v>
+        <v>7.088999999999999e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>8.006e-05</v>
+        <v>8.296000000000001e-05</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4958,22 +4958,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C189" t="n">
-        <v>6.828e-05</v>
+        <v>5.515e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>8.075e-05</v>
+        <v>8.473e-05</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -4982,22 +4982,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C190" t="n">
-        <v>5.662e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>8.023e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5006,22 +5006,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C191" t="n">
-        <v>6.578e-05</v>
+        <v>7.088e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>8.064e-05</v>
+        <v>8.535e-05</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C192" t="n">
-        <v>6.575999999999999e-05</v>
+        <v>6.075e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>8.049e-05</v>
+        <v>8.494e-05</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5054,22 +5054,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C193" t="n">
-        <v>4.628e-05</v>
+        <v>8.188e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>7.969e-05</v>
+        <v>8.564999999999999e-05</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5078,22 +5078,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C194" t="n">
-        <v>6.892e-05</v>
+        <v>7.428e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>8.076000000000001e-05</v>
+        <v>8.534000000000001e-05</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5102,22 +5102,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C195" t="n">
-        <v>6.308e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>8.025e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5126,22 +5126,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C196" t="n">
-        <v>4.603e-05</v>
+        <v>5.611e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>8.01e-05</v>
+        <v>8.462999999999999e-05</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5150,22 +5150,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C197" t="n">
-        <v>5.114e-05</v>
+        <v>7.919000000000001e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>8.001e-05</v>
+        <v>8.559999999999999e-05</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5174,22 +5174,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C198" t="n">
-        <v>6.549e-05</v>
+        <v>5.371e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>7.989e-05</v>
+        <v>8.433e-05</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5198,22 +5198,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C199" t="n">
-        <v>5.289e-05</v>
+        <v>5.577e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>7.949e-05</v>
+        <v>8.449999999999999e-05</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5222,22 +5222,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C200" t="n">
-        <v>7.655e-05</v>
+        <v>6.229e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>8.092e-05</v>
+        <v>8.464e-05</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5246,22 +5246,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C201" t="n">
-        <v>8.1e-05</v>
+        <v>7.901e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>8.1e-05</v>
+        <v>8.551999999999999e-05</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
@@ -5270,22 +5270,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>8.1e-05</v>
+        <v>8.572999999999999e-05</v>
       </c>
       <c r="C202" t="n">
-        <v>5.376e-05</v>
+        <v>7.644000000000001e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>7.998e-05</v>
+        <v>8.546e-05</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>12345.00</t>
+          <t>11665.00</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>La Plata-&gt;CABA-&gt;Posadas-&gt;Paraná-&gt;Santa Fe-&gt;Ushuaia-&gt;Río Gallegos-&gt;Rawson-&gt;Santa Rosa-&gt;San Luis-&gt;Mendoza-&gt;San Juan-&gt;Córdoba-&gt;Resistencia-&gt;Corrientes-&gt;Formosa-&gt;Santiago del Estero-&gt;Salta-&gt;San Salvador de Jujuy-&gt;San Miguel de Tucumán-&gt;San Fernando del Valle de Catamarca-&gt;La Rioja-&gt;Neuquén-&gt;Viedma</t>
+          <t>3 &amp; Formosa\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\8 &amp; Paraná\19 &amp; Santa Fe\1 &amp; Córdoba\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\16 &amp; Salta\5 &amp; La Rioja\13 &amp; San Fernando del Valle de Catamarca\17 &amp; San Juan\6 &amp; Mendoza\21 &amp; Santiago del Estero\18 &amp; San Luis\7 &amp; Neuquén\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\20 &amp; Santa Rosa\23 &amp; Viedma\0 &amp; CABA\4 &amp; La Plata\3 &amp; Formosa</t>
         </is>
       </c>
     </row>
